--- a/share/data/templates/BioGears.xlsx
+++ b/share/data/templates/BioGears.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\remotes\sed-stash\core\worktrees\exonicus\share\data\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Projects\Repositories\BioGears\core\share\data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61D7B96-57D2-4151-8857-8797D882982E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0959DD-F0E7-4742-A8B9-2EFEA09AAAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1800" windowWidth="17280" windowHeight="10074" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="6" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="840">
   <si>
     <t>Name</t>
   </si>
@@ -1950,9 +1950,6 @@
     <t>0.3335 g/dL</t>
   </si>
   <si>
-    <t>0.7 mL/min kg</t>
-  </si>
-  <si>
     <t>0.0314 g/L</t>
   </si>
   <si>
@@ -2013,12 +2010,6 @@
     <t>0.145 1/min</t>
   </si>
   <si>
-    <t>781.0 mL/min kg</t>
-  </si>
-  <si>
-    <t>15.5 mL/min kg</t>
-  </si>
-  <si>
     <t>20.0 mL/min kg</t>
   </si>
   <si>
@@ -2491,9 +2482,6 @@
   </si>
   <si>
     <t>[-0.75;1.5 ug/mL]</t>
-  </si>
-  <si>
-    <t>[1.0;  4 ug/L]</t>
   </si>
   <si>
     <t>[-0.05;  4 ug/L]</t>
@@ -2591,6 +2579,15 @@
   </si>
   <si>
     <t>891.48 g/mol</t>
+  </si>
+  <si>
+    <t>25.5 mL/min kg</t>
+  </si>
+  <si>
+    <t>68 mL/min kg</t>
+  </si>
+  <si>
+    <t>[1.0;  2 ug/L]</t>
   </si>
 </sst>
 </file>
@@ -3899,33 +3896,33 @@
       <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" style="77" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.41796875" style="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.578125" style="81" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="81" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="15.140625" style="81" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="81"/>
+    <col min="5" max="5" width="14.26171875" style="81" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.41796875" style="81" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" style="81" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.41796875" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26171875" style="81" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.68359375" style="81" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.15625" style="81" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.15625" style="81" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.68359375" style="81" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.15625" style="81" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.15625" style="81" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.68359375" style="81" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.68359375" style="81" customWidth="1"/>
+    <col min="20" max="20" width="10.68359375" style="81" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.15625" style="81" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.83984375" style="81" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="15.15625" style="81" customWidth="1"/>
+    <col min="25" max="16384" width="8.83984375" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="76"/>
       <c r="B1" s="138" t="s">
         <v>468</v>
@@ -3961,7 +3958,7 @@
       </c>
       <c r="X1" s="140"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="77" t="s">
         <v>0</v>
       </c>
@@ -4035,7 +4032,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="76" t="s">
         <v>447</v>
       </c>
@@ -4063,7 +4060,7 @@
       <c r="W3" s="94"/>
       <c r="X3" s="95"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="84" t="s">
         <v>295</v>
       </c>
@@ -4137,7 +4134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="76" t="s">
         <v>475</v>
       </c>
@@ -4165,7 +4162,7 @@
       <c r="W5" s="88"/>
       <c r="X5" s="89"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="85" t="s">
         <v>5</v>
       </c>
@@ -4235,7 +4232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="85" t="s">
         <v>6</v>
       </c>
@@ -4301,7 +4298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="85" t="s">
         <v>7</v>
       </c>
@@ -4371,7 +4368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="85" t="s">
         <v>162</v>
       </c>
@@ -4441,7 +4438,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="76" t="s">
         <v>476</v>
       </c>
@@ -4469,7 +4466,7 @@
       <c r="W10" s="88"/>
       <c r="X10" s="89"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="85" t="s">
         <v>474</v>
       </c>
@@ -4497,7 +4494,7 @@
       <c r="W11" s="92"/>
       <c r="X11" s="93"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="85" t="s">
         <v>440</v>
       </c>
@@ -4525,7 +4522,7 @@
       <c r="W12" s="92"/>
       <c r="X12" s="93"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="85" t="s">
         <v>60</v>
       </c>
@@ -4595,7 +4592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="85" t="s">
         <v>436</v>
       </c>
@@ -4665,7 +4662,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="85" t="s">
         <v>437</v>
       </c>
@@ -4735,7 +4732,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="85" t="s">
         <v>62</v>
       </c>
@@ -4805,7 +4802,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="96" t="s">
         <v>478</v>
       </c>
@@ -4833,7 +4830,7 @@
       <c r="W17" s="88"/>
       <c r="X17" s="89"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="85" t="s">
         <v>469</v>
       </c>
@@ -4861,7 +4858,7 @@
       <c r="W18" s="92"/>
       <c r="X18" s="93"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="85" t="s">
         <v>8</v>
       </c>
@@ -4893,7 +4890,7 @@
       <c r="W19" s="92"/>
       <c r="X19" s="93"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="85" t="s">
         <v>445</v>
       </c>
@@ -4921,7 +4918,7 @@
       <c r="W20" s="92"/>
       <c r="X20" s="93"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="85" t="s">
         <v>607</v>
       </c>
@@ -4951,7 +4948,7 @@
       <c r="W21" s="92"/>
       <c r="X21" s="103"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="85" t="s">
         <v>608</v>
       </c>
@@ -4981,7 +4978,7 @@
       <c r="W22" s="92"/>
       <c r="X22" s="103"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="85" t="s">
         <v>609</v>
       </c>
@@ -5013,7 +5010,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="76" t="s">
         <v>477</v>
       </c>
@@ -5041,7 +5038,7 @@
       <c r="W24" s="88"/>
       <c r="X24" s="89"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="85" t="s">
         <v>442</v>
       </c>
@@ -5069,7 +5066,7 @@
       <c r="W25" s="92"/>
       <c r="X25" s="93"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="85" t="s">
         <v>443</v>
       </c>
@@ -5097,7 +5094,7 @@
       <c r="W26" s="92"/>
       <c r="X26" s="93"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="85" t="s">
         <v>441</v>
       </c>
@@ -5125,7 +5122,7 @@
       <c r="W27" s="92"/>
       <c r="X27" s="93"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="85" t="s">
         <v>446</v>
       </c>
@@ -5153,7 +5150,7 @@
       <c r="W28" s="92"/>
       <c r="X28" s="93"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="85" t="s">
         <v>444</v>
       </c>
@@ -5198,72 +5195,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BI86"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AQ3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="AA44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AW17" sqref="AW17"/>
+      <selection pane="bottomRight" activeCell="AD53" sqref="AD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="117" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.85546875" style="117" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="59.7109375" style="117" customWidth="1"/>
-    <col min="27" max="27" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.68359375" style="117" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.83984375" style="117" customWidth="1"/>
+    <col min="23" max="23" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="59.68359375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="59.68359375" style="117" customWidth="1"/>
+    <col min="27" max="27" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.41796875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.42578125" style="117" customWidth="1"/>
-    <col min="39" max="39" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="18.578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.41796875" style="117" customWidth="1"/>
+    <col min="39" max="39" width="14.41796875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="14" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="60" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.41796875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.15625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.68359375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="26.15625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="28.83984375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="60" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="46"/>
       <c r="B1" s="122"/>
       <c r="C1" s="122"/>
@@ -5326,7 +5323,7 @@
       <c r="BH1" s="134"/>
       <c r="BI1" s="134"/>
     </row>
-    <row r="2" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="116" t="s">
         <v>0</v>
       </c>
@@ -5352,7 +5349,7 @@
         <v>433</v>
       </c>
       <c r="I2" s="116" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="J2" s="116" t="s">
         <v>434</v>
@@ -5370,7 +5367,7 @@
         <v>170</v>
       </c>
       <c r="O2" s="116" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="P2" s="116" t="s">
         <v>538</v>
@@ -5391,28 +5388,28 @@
         <v>541</v>
       </c>
       <c r="V2" s="116" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="W2" s="116" t="s">
         <v>165</v>
       </c>
       <c r="X2" s="116" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="Y2" s="116" t="s">
         <v>182</v>
       </c>
       <c r="Z2" s="116" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="AA2" s="116" t="s">
         <v>50</v>
       </c>
       <c r="AB2" s="116" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AC2" s="116" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="AD2" s="116" t="s">
         <v>51</v>
@@ -5430,7 +5427,7 @@
         <v>47</v>
       </c>
       <c r="AI2" s="116" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AJ2" s="116" t="s">
         <v>48</v>
@@ -5439,7 +5436,7 @@
         <v>593</v>
       </c>
       <c r="AL2" s="116" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="AM2" s="116" t="s">
         <v>595</v>
@@ -5466,7 +5463,7 @@
         <v>596</v>
       </c>
       <c r="AU2" s="116" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AV2" s="116" t="s">
         <v>588</v>
@@ -5496,22 +5493,22 @@
         <v>522</v>
       </c>
       <c r="BE2" s="116" t="s">
+        <v>664</v>
+      </c>
+      <c r="BF2" s="116" t="s">
+        <v>666</v>
+      </c>
+      <c r="BG2" s="116" t="s">
+        <v>669</v>
+      </c>
+      <c r="BH2" s="116" t="s">
+        <v>662</v>
+      </c>
+      <c r="BI2" s="116" t="s">
         <v>667</v>
       </c>
-      <c r="BF2" s="116" t="s">
-        <v>669</v>
-      </c>
-      <c r="BG2" s="116" t="s">
-        <v>672</v>
-      </c>
-      <c r="BH2" s="116" t="s">
-        <v>665</v>
-      </c>
-      <c r="BI2" s="116" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:61" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="135" t="s">
         <v>260</v>
       </c>
@@ -5576,7 +5573,7 @@
       <c r="BH3" s="134"/>
       <c r="BI3" s="134"/>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="47" t="s">
         <v>1</v>
       </c>
@@ -5761,7 +5758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="47" t="s">
         <v>575</v>
       </c>
@@ -5861,22 +5858,22 @@
       <c r="BC5" s="132"/>
       <c r="BD5" s="132"/>
       <c r="BE5" s="133" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="BF5" s="133" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="BG5" s="133" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="BH5" s="133" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="BI5" s="133" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="47" t="s">
         <v>10</v>
       </c>
@@ -5911,11 +5908,11 @@
         <v>542</v>
       </c>
       <c r="V6" s="99" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="W6" s="99"/>
       <c r="X6" s="130" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="Y6" s="130" t="s">
         <v>124</v>
@@ -5958,16 +5955,16 @@
       <c r="BE6" s="133"/>
       <c r="BF6" s="133"/>
       <c r="BG6" s="133" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="BH6" s="133" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="BI6" s="133" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="47" t="s">
         <v>430</v>
       </c>
@@ -6038,7 +6035,7 @@
       <c r="BH7" s="133"/>
       <c r="BI7" s="133"/>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="47" t="s">
         <v>431</v>
       </c>
@@ -6109,7 +6106,7 @@
       <c r="BH8" s="133"/>
       <c r="BI8" s="133"/>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="47" t="s">
         <v>572</v>
       </c>
@@ -6125,7 +6122,7 @@
         <v>569</v>
       </c>
       <c r="I9" s="118" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="J9" s="123" t="s">
         <v>570</v>
@@ -6184,7 +6181,7 @@
       <c r="BH9" s="133"/>
       <c r="BI9" s="133"/>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -6210,7 +6207,7 @@
         <v>435</v>
       </c>
       <c r="I10" s="118" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="J10" s="118" t="s">
         <v>563</v>
@@ -6249,28 +6246,28 @@
         <v>544</v>
       </c>
       <c r="V10" s="99" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="W10" s="99" t="s">
         <v>166</v>
       </c>
       <c r="X10" s="130" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="Y10" s="130" t="s">
         <v>283</v>
       </c>
       <c r="Z10" s="130" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="AA10" s="130" t="s">
         <v>529</v>
       </c>
       <c r="AB10" s="130" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AC10" s="130" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="AD10" s="130" t="s">
         <v>623</v>
@@ -6288,7 +6285,7 @@
         <v>114</v>
       </c>
       <c r="AI10" s="130" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AJ10" s="130" t="s">
         <v>116</v>
@@ -6297,7 +6294,7 @@
         <v>594</v>
       </c>
       <c r="AL10" s="130" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="AM10" s="130" t="s">
         <v>597</v>
@@ -6324,7 +6321,7 @@
         <v>598</v>
       </c>
       <c r="AU10" s="130" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AV10" s="130" t="s">
         <v>589</v>
@@ -6350,22 +6347,22 @@
       </c>
       <c r="BD10" s="132"/>
       <c r="BE10" s="133" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="BF10" s="133" t="s">
+        <v>683</v>
+      </c>
+      <c r="BG10" s="133" t="s">
         <v>686</v>
       </c>
-      <c r="BG10" s="133" t="s">
-        <v>689</v>
-      </c>
       <c r="BH10" s="133" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="BI10" s="133" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="47" t="s">
         <v>73</v>
       </c>
@@ -6442,7 +6439,7 @@
       <c r="BH11" s="133"/>
       <c r="BI11" s="133"/>
     </row>
-    <row r="12" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="47" t="s">
         <v>72</v>
       </c>
@@ -6519,7 +6516,7 @@
       <c r="BH12" s="133"/>
       <c r="BI12" s="133"/>
     </row>
-    <row r="13" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="135" t="s">
         <v>256</v>
       </c>
@@ -6586,7 +6583,7 @@
       <c r="BH13" s="134"/>
       <c r="BI13" s="134"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="48" t="s">
         <v>525</v>
       </c>
@@ -6657,7 +6654,7 @@
       <c r="BH14" s="133"/>
       <c r="BI14" s="133"/>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="48" t="s">
         <v>516</v>
       </c>
@@ -6728,7 +6725,7 @@
       <c r="BH15" s="133"/>
       <c r="BI15" s="133"/>
     </row>
-    <row r="16" spans="1:61" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="48" t="s">
         <v>501</v>
       </c>
@@ -6777,7 +6774,7 @@
       <c r="AP16" s="130"/>
       <c r="AQ16" s="130"/>
       <c r="AR16" s="130" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="AS16" s="130"/>
       <c r="AT16" s="130"/>
@@ -6799,7 +6796,7 @@
       <c r="BH16" s="133"/>
       <c r="BI16" s="133"/>
     </row>
-    <row r="17" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:61" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="135" t="s">
         <v>257</v>
       </c>
@@ -6866,7 +6863,7 @@
       <c r="BH17" s="134"/>
       <c r="BI17" s="134"/>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="47" t="s">
         <v>93</v>
       </c>
@@ -6923,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="AD18" s="130">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE18" s="130">
         <v>0.08</v>
@@ -6995,7 +6992,7 @@
       <c r="BH18" s="133"/>
       <c r="BI18" s="133"/>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="47" t="s">
         <v>89</v>
       </c>
@@ -7052,7 +7049,7 @@
         <v>0.25</v>
       </c>
       <c r="AD19" s="130">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE19" s="130">
         <v>0.05</v>
@@ -7124,7 +7121,7 @@
       <c r="BH19" s="133"/>
       <c r="BI19" s="133"/>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="47" t="s">
         <v>91</v>
       </c>
@@ -7178,28 +7175,28 @@
         <v>96</v>
       </c>
       <c r="AC20" s="130" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="AD20" s="130" t="s">
-        <v>648</v>
+        <v>837</v>
       </c>
       <c r="AE20" s="130" t="s">
         <v>264</v>
       </c>
       <c r="AF20" s="130" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="AG20" s="130" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AH20" s="130" t="s">
         <v>591</v>
       </c>
       <c r="AI20" s="130" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AJ20" s="130" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AK20" s="130" t="s">
         <v>264</v>
@@ -7217,10 +7214,10 @@
         <v>188</v>
       </c>
       <c r="AP20" s="130" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="AQ20" s="130" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="AR20" s="130" t="s">
         <v>96</v>
@@ -7229,13 +7226,13 @@
         <v>264</v>
       </c>
       <c r="AT20" s="130" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AU20" s="130" t="s">
         <v>264</v>
       </c>
       <c r="AV20" s="130" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AW20" s="132" t="s">
         <v>96</v>
@@ -7253,7 +7250,7 @@
       <c r="BH20" s="133"/>
       <c r="BI20" s="133"/>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="47" t="s">
         <v>276</v>
       </c>
@@ -7292,13 +7289,13 @@
       <c r="V21" s="99"/>
       <c r="W21" s="99"/>
       <c r="X21" s="130" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="Y21" s="130" t="s">
         <v>499</v>
       </c>
       <c r="Z21" s="130" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="AA21" s="130" t="s">
         <v>96</v>
@@ -7307,10 +7304,10 @@
         <v>499</v>
       </c>
       <c r="AC21" s="130" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="AD21" s="130" t="s">
-        <v>627</v>
+        <v>278</v>
       </c>
       <c r="AE21" s="130" t="s">
         <v>266</v>
@@ -7319,13 +7316,13 @@
         <v>96</v>
       </c>
       <c r="AG21" s="130" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AH21" s="130" t="s">
         <v>269</v>
       </c>
       <c r="AI21" s="130" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AJ21" s="130" t="s">
         <v>278</v>
@@ -7334,7 +7331,7 @@
         <v>264</v>
       </c>
       <c r="AL21" s="130" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="AM21" s="130" t="s">
         <v>603</v>
@@ -7361,7 +7358,7 @@
         <v>605</v>
       </c>
       <c r="AU21" s="130" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AV21" s="130" t="s">
         <v>590</v>
@@ -7382,7 +7379,7 @@
       <c r="BH21" s="133"/>
       <c r="BI21" s="133"/>
     </row>
-    <row r="22" spans="1:61" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:61" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="47" t="s">
         <v>92</v>
       </c>
@@ -7408,7 +7405,7 @@
         <v>537</v>
       </c>
       <c r="O22" s="99" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="P22" s="99"/>
       <c r="Q22" s="99"/>
@@ -7433,19 +7430,19 @@
         <v>189</v>
       </c>
       <c r="AB22" s="130" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AC22" s="130" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="AD22" s="130" t="s">
-        <v>649</v>
+        <v>838</v>
       </c>
       <c r="AE22" s="130" t="s">
         <v>265</v>
       </c>
       <c r="AF22" s="130" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="AG22" s="130" t="s">
         <v>268</v>
@@ -7454,13 +7451,13 @@
         <v>587</v>
       </c>
       <c r="AI22" s="130" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AJ22" s="130" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="AK22" s="130" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AL22" s="130" t="s">
         <v>552</v>
@@ -7475,25 +7472,25 @@
         <v>271</v>
       </c>
       <c r="AP22" s="130" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="AQ22" s="130" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="AR22" s="130" t="s">
         <v>552</v>
       </c>
       <c r="AS22" s="130" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AT22" s="130" t="s">
         <v>606</v>
       </c>
       <c r="AU22" s="130" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AV22" s="130" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AW22" s="132" t="s">
         <v>216</v>
@@ -7511,7 +7508,7 @@
       <c r="BH22" s="133"/>
       <c r="BI22" s="133"/>
     </row>
-    <row r="23" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="136" t="s">
         <v>255</v>
       </c>
@@ -7578,7 +7575,7 @@
       <c r="BH23" s="134"/>
       <c r="BI23" s="134"/>
     </row>
-    <row r="24" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="55" t="s">
         <v>251</v>
       </c>
@@ -7643,7 +7640,7 @@
       <c r="BH24" s="133"/>
       <c r="BI24" s="133"/>
     </row>
-    <row r="25" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="136" t="s">
         <v>250</v>
       </c>
@@ -7710,7 +7707,7 @@
       <c r="BH25" s="134"/>
       <c r="BI25" s="134"/>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="55" t="s">
         <v>252</v>
       </c>
@@ -7805,7 +7802,7 @@
       <c r="BH26" s="133"/>
       <c r="BI26" s="133"/>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="55" t="s">
         <v>277</v>
       </c>
@@ -7894,7 +7891,7 @@
       <c r="BH27" s="133"/>
       <c r="BI27" s="133"/>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="55" t="s">
         <v>253</v>
       </c>
@@ -7989,7 +7986,7 @@
       <c r="BH28" s="133"/>
       <c r="BI28" s="133"/>
     </row>
-    <row r="29" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="55" t="s">
         <v>254</v>
       </c>
@@ -8084,9 +8081,9 @@
       <c r="BH29" s="133"/>
       <c r="BI29" s="133"/>
     </row>
-    <row r="30" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="136" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B30" s="122"/>
       <c r="C30" s="122"/>
@@ -8151,9 +8148,9 @@
       <c r="BH30" s="134"/>
       <c r="BI30" s="134"/>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="55" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B31" s="121"/>
       <c r="C31" s="121"/>
@@ -8211,24 +8208,24 @@
       <c r="BC31" s="132"/>
       <c r="BD31" s="132"/>
       <c r="BE31" s="133" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="BF31" s="133" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="BG31" s="133" t="s">
+        <v>685</v>
+      </c>
+      <c r="BH31" s="133" t="s">
+        <v>684</v>
+      </c>
+      <c r="BI31" s="133" t="s">
         <v>688</v>
       </c>
-      <c r="BH31" s="133" t="s">
-        <v>687</v>
-      </c>
-      <c r="BI31" s="133" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="32" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="55" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B32" s="121"/>
       <c r="C32" s="121"/>
@@ -8286,22 +8283,22 @@
       <c r="BC32" s="132"/>
       <c r="BD32" s="132"/>
       <c r="BE32" s="133" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="BF32" s="133" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="BG32" s="133" t="s">
+        <v>685</v>
+      </c>
+      <c r="BH32" s="133" t="s">
+        <v>684</v>
+      </c>
+      <c r="BI32" s="133" t="s">
         <v>688</v>
       </c>
-      <c r="BH32" s="133" t="s">
-        <v>687</v>
-      </c>
-      <c r="BI32" s="133" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="33" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:61" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="135" t="s">
         <v>258</v>
       </c>
@@ -8368,7 +8365,7 @@
       <c r="BH33" s="134"/>
       <c r="BI33" s="134"/>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="47" t="s">
         <v>87</v>
       </c>
@@ -8426,7 +8423,7 @@
       </c>
       <c r="AH34" s="130"/>
       <c r="AI34" s="130" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="AJ34" s="130">
         <v>7.94</v>
@@ -8479,7 +8476,7 @@
       <c r="BH34" s="133"/>
       <c r="BI34" s="133"/>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="47" t="s">
         <v>110</v>
       </c>
@@ -8571,7 +8568,7 @@
         <v>111</v>
       </c>
       <c r="AU35" s="130" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AV35" s="130" t="s">
         <v>111</v>
@@ -8590,7 +8587,7 @@
       <c r="BH35" s="133"/>
       <c r="BI35" s="133"/>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="47" t="s">
         <v>90</v>
       </c>
@@ -8701,7 +8698,7 @@
       <c r="BH36" s="133"/>
       <c r="BI36" s="133"/>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="47" t="s">
         <v>89</v>
       </c>
@@ -8770,7 +8767,7 @@
       <c r="BH37" s="133"/>
       <c r="BI37" s="133"/>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="47" t="s">
         <v>86</v>
       </c>
@@ -8828,7 +8825,7 @@
       </c>
       <c r="AH38" s="130"/>
       <c r="AI38" s="130" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AJ38" s="130" t="s">
         <v>97</v>
@@ -8881,7 +8878,7 @@
       <c r="BH38" s="133"/>
       <c r="BI38" s="133"/>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="47" t="s">
         <v>88</v>
       </c>
@@ -8992,7 +8989,7 @@
       <c r="BH39" s="133"/>
       <c r="BI39" s="133"/>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="47" t="s">
         <v>621</v>
       </c>
@@ -9103,7 +9100,7 @@
       <c r="BH40" s="133"/>
       <c r="BI40" s="133"/>
     </row>
-    <row r="41" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" s="47" t="s">
         <v>622</v>
       </c>
@@ -9214,7 +9211,7 @@
       <c r="BH41" s="133"/>
       <c r="BI41" s="133"/>
     </row>
-    <row r="42" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:61" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A42" s="135" t="s">
         <v>259</v>
       </c>
@@ -9281,7 +9278,7 @@
       <c r="BH42" s="134"/>
       <c r="BI42" s="134"/>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="97" t="s">
         <v>531</v>
       </c>
@@ -9310,13 +9307,13 @@
       <c r="V43" s="99"/>
       <c r="W43" s="99"/>
       <c r="X43" s="130" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="Y43" s="130" t="s">
         <v>533</v>
       </c>
       <c r="Z43" s="130" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="AA43" s="130" t="s">
         <v>582</v>
@@ -9328,13 +9325,13 @@
         <v>584</v>
       </c>
       <c r="AD43" s="130" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AE43" s="130" t="s">
         <v>533</v>
       </c>
       <c r="AF43" s="130" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="AG43" s="130" t="s">
         <v>583</v>
@@ -9377,7 +9374,7 @@
       </c>
       <c r="AT43" s="130"/>
       <c r="AU43" s="130" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AV43" s="130" t="s">
         <v>533</v>
@@ -9396,7 +9393,7 @@
       <c r="BH43" s="133"/>
       <c r="BI43" s="133"/>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="48" t="s">
         <v>515</v>
       </c>
@@ -9511,9 +9508,9 @@
       <c r="BH44" s="133"/>
       <c r="BI44" s="133"/>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="97" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B45" s="121"/>
       <c r="C45" s="121"/>
@@ -9526,7 +9523,7 @@
       <c r="J45" s="118"/>
       <c r="K45" s="118"/>
       <c r="L45" s="124" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M45" s="124"/>
       <c r="N45" s="124"/>
@@ -9540,77 +9537,77 @@
       <c r="V45" s="99"/>
       <c r="W45" s="99"/>
       <c r="X45" s="130" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y45" s="130" t="s">
+        <v>644</v>
+      </c>
+      <c r="Z45" s="130" t="s">
+        <v>644</v>
+      </c>
+      <c r="AA45" s="130" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB45" s="130" t="s">
         <v>645</v>
       </c>
-      <c r="Y45" s="130" t="s">
+      <c r="AC45" s="130" t="s">
+        <v>644</v>
+      </c>
+      <c r="AD45" s="130" t="s">
+        <v>644</v>
+      </c>
+      <c r="AE45" s="130" t="s">
+        <v>644</v>
+      </c>
+      <c r="AF45" s="130" t="s">
+        <v>644</v>
+      </c>
+      <c r="AG45" s="130" t="s">
+        <v>644</v>
+      </c>
+      <c r="AH45" s="130" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI45" s="130" t="s">
         <v>645</v>
       </c>
-      <c r="Z45" s="130" t="s">
+      <c r="AJ45" s="130" t="s">
+        <v>644</v>
+      </c>
+      <c r="AK45" s="130" t="s">
+        <v>644</v>
+      </c>
+      <c r="AL45" s="130" t="s">
+        <v>644</v>
+      </c>
+      <c r="AM45" s="130" t="s">
         <v>645</v>
       </c>
-      <c r="AA45" s="130" t="s">
-        <v>645</v>
-      </c>
-      <c r="AB45" s="130" t="s">
-        <v>646</v>
-      </c>
-      <c r="AC45" s="130" t="s">
-        <v>645</v>
-      </c>
-      <c r="AD45" s="130" t="s">
-        <v>645</v>
-      </c>
-      <c r="AE45" s="130" t="s">
-        <v>645</v>
-      </c>
-      <c r="AF45" s="130" t="s">
-        <v>645</v>
-      </c>
-      <c r="AG45" s="130" t="s">
-        <v>645</v>
-      </c>
-      <c r="AH45" s="130" t="s">
-        <v>645</v>
-      </c>
-      <c r="AI45" s="130" t="s">
-        <v>646</v>
-      </c>
-      <c r="AJ45" s="130" t="s">
-        <v>645</v>
-      </c>
-      <c r="AK45" s="130" t="s">
-        <v>645</v>
-      </c>
-      <c r="AL45" s="130" t="s">
-        <v>645</v>
-      </c>
-      <c r="AM45" s="130" t="s">
-        <v>646</v>
-      </c>
       <c r="AN45" s="130" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AO45" s="130" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AP45" s="130" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AQ45" s="130" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR45" s="130" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AS45" s="130" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AT45" s="130"/>
       <c r="AU45" s="130" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AV45" s="130" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AW45" s="132"/>
       <c r="AX45" s="132"/>
@@ -9626,7 +9623,7 @@
       <c r="BH45" s="133"/>
       <c r="BI45" s="133"/>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="48" t="s">
         <v>243</v>
       </c>
@@ -9641,7 +9638,7 @@
       <c r="J46" s="118"/>
       <c r="K46" s="118"/>
       <c r="L46" s="124" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="M46" s="124"/>
       <c r="N46" s="124"/>
@@ -9655,77 +9652,77 @@
       <c r="V46" s="99"/>
       <c r="W46" s="99"/>
       <c r="X46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Y46" s="130" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="Z46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AA46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AB46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AC46" s="130" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="AD46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AE46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AF46" s="130" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="AG46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AH46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AI46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AJ46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AK46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AL46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AM46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AN46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AO46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AP46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AQ46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AR46" s="130" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="AS46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AT46" s="130"/>
       <c r="AU46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV46" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AW46" s="132"/>
       <c r="AX46" s="132"/>
@@ -9741,7 +9738,7 @@
       <c r="BH46" s="133"/>
       <c r="BI46" s="133"/>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="48" t="s">
         <v>530</v>
       </c>
@@ -9756,7 +9753,7 @@
       <c r="J47" s="118"/>
       <c r="K47" s="118"/>
       <c r="L47" s="124" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="M47" s="124"/>
       <c r="N47" s="124"/>
@@ -9770,77 +9767,77 @@
       <c r="V47" s="99"/>
       <c r="W47" s="99"/>
       <c r="X47" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Y47" s="130" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="Z47" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AA47" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AB47" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AC47" s="130" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="AD47" s="130" t="s">
-        <v>808</v>
+        <v>839</v>
       </c>
       <c r="AE47" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AF47" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AG47" s="130" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="AH47" s="130" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="AI47" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AJ47" s="130" t="s">
+        <v>745</v>
+      </c>
+      <c r="AK47" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AL47" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AM47" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AN47" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AO47" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AP47" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="AK47" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AL47" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AM47" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AN47" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AO47" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AP47" s="130" t="s">
-        <v>751</v>
-      </c>
       <c r="AQ47" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AR47" s="130" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="AS47" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AT47" s="130"/>
       <c r="AU47" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV47" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AW47" s="132"/>
       <c r="AX47" s="132"/>
@@ -9856,7 +9853,7 @@
       <c r="BH47" s="133"/>
       <c r="BI47" s="133"/>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="48" t="s">
         <v>244</v>
       </c>
@@ -9871,7 +9868,7 @@
       <c r="J48" s="118"/>
       <c r="K48" s="118"/>
       <c r="L48" s="124" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="M48" s="124"/>
       <c r="N48" s="124"/>
@@ -9885,77 +9882,77 @@
       <c r="V48" s="99"/>
       <c r="W48" s="99"/>
       <c r="X48" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Y48" s="130" t="s">
+        <v>710</v>
+      </c>
+      <c r="Z48" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA48" s="130" t="s">
         <v>713</v>
       </c>
-      <c r="Z48" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AA48" s="130" t="s">
+      <c r="AB48" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AC48" s="130" t="s">
+        <v>798</v>
+      </c>
+      <c r="AD48" s="130" t="s">
+        <v>805</v>
+      </c>
+      <c r="AE48" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AF48" s="130" t="s">
+        <v>766</v>
+      </c>
+      <c r="AG48" s="130" t="s">
+        <v>757</v>
+      </c>
+      <c r="AH48" s="130" t="s">
+        <v>714</v>
+      </c>
+      <c r="AI48" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AJ48" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AK48" s="130" t="s">
+        <v>715</v>
+      </c>
+      <c r="AL48" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AM48" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AN48" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AO48" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AP48" s="130" t="s">
+        <v>752</v>
+      </c>
+      <c r="AQ48" s="130" t="s">
         <v>716</v>
       </c>
-      <c r="AB48" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AC48" s="130" t="s">
-        <v>801</v>
-      </c>
-      <c r="AD48" s="130" t="s">
-        <v>809</v>
-      </c>
-      <c r="AE48" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AF48" s="130" t="s">
-        <v>769</v>
-      </c>
-      <c r="AG48" s="130" t="s">
-        <v>760</v>
-      </c>
-      <c r="AH48" s="130" t="s">
+      <c r="AR48" s="130" t="s">
         <v>717</v>
       </c>
-      <c r="AI48" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AJ48" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AK48" s="130" t="s">
+      <c r="AS48" s="130" t="s">
         <v>718</v>
-      </c>
-      <c r="AL48" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AM48" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AN48" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AO48" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AP48" s="130" t="s">
-        <v>755</v>
-      </c>
-      <c r="AQ48" s="130" t="s">
-        <v>719</v>
-      </c>
-      <c r="AR48" s="130" t="s">
-        <v>720</v>
-      </c>
-      <c r="AS48" s="130" t="s">
-        <v>721</v>
       </c>
       <c r="AT48" s="130"/>
       <c r="AU48" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV48" s="130" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="AW48" s="132"/>
       <c r="AX48" s="132"/>
@@ -9971,9 +9968,9 @@
       <c r="BH48" s="133"/>
       <c r="BI48" s="133"/>
     </row>
-    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="48" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B49" s="121"/>
       <c r="C49" s="121"/>
@@ -9986,7 +9983,7 @@
       <c r="J49" s="118"/>
       <c r="K49" s="118"/>
       <c r="L49" s="124" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="M49" s="124"/>
       <c r="N49" s="124"/>
@@ -10000,77 +9997,77 @@
       <c r="V49" s="99"/>
       <c r="W49" s="99"/>
       <c r="X49" s="130" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="Y49" s="130" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="Z49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AA49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AB49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AC49" s="130" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="AD49" s="130" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="AE49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AF49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AG49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AH49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AI49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AJ49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AK49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AL49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AM49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AN49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AO49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AP49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AQ49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AR49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AS49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AT49" s="130"/>
       <c r="AU49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV49" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AW49" s="132"/>
       <c r="AX49" s="132"/>
@@ -10086,7 +10083,7 @@
       <c r="BH49" s="133"/>
       <c r="BI49" s="133"/>
     </row>
-    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="48" t="s">
         <v>3</v>
       </c>
@@ -10101,7 +10098,7 @@
       <c r="J50" s="118"/>
       <c r="K50" s="118"/>
       <c r="L50" s="124" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="M50" s="124"/>
       <c r="N50" s="124"/>
@@ -10115,77 +10112,77 @@
       <c r="V50" s="99"/>
       <c r="W50" s="99"/>
       <c r="X50" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Y50" s="130" t="s">
+        <v>721</v>
+      </c>
+      <c r="Z50" s="130" t="s">
+        <v>831</v>
+      </c>
+      <c r="AA50" s="130" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB50" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AC50" s="130" t="s">
+        <v>800</v>
+      </c>
+      <c r="AD50" s="130" t="s">
+        <v>807</v>
+      </c>
+      <c r="AE50" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AF50" s="130" t="s">
+        <v>767</v>
+      </c>
+      <c r="AG50" s="130" t="s">
+        <v>789</v>
+      </c>
+      <c r="AH50" s="130" t="s">
+        <v>723</v>
+      </c>
+      <c r="AI50" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AJ50" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AK50" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AL50" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AM50" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AN50" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AO50" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AP50" s="130" t="s">
+        <v>753</v>
+      </c>
+      <c r="AQ50" s="130" t="s">
         <v>724</v>
       </c>
-      <c r="Z50" s="130" t="s">
-        <v>835</v>
-      </c>
-      <c r="AA50" s="130" t="s">
+      <c r="AR50" s="130" t="s">
+        <v>717</v>
+      </c>
+      <c r="AS50" s="130" t="s">
         <v>725</v>
-      </c>
-      <c r="AB50" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AC50" s="130" t="s">
-        <v>803</v>
-      </c>
-      <c r="AD50" s="130" t="s">
-        <v>811</v>
-      </c>
-      <c r="AE50" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AF50" s="130" t="s">
-        <v>770</v>
-      </c>
-      <c r="AG50" s="130" t="s">
-        <v>792</v>
-      </c>
-      <c r="AH50" s="130" t="s">
-        <v>726</v>
-      </c>
-      <c r="AI50" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AJ50" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AK50" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AL50" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AM50" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AN50" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AO50" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AP50" s="130" t="s">
-        <v>756</v>
-      </c>
-      <c r="AQ50" s="130" t="s">
-        <v>727</v>
-      </c>
-      <c r="AR50" s="130" t="s">
-        <v>720</v>
-      </c>
-      <c r="AS50" s="130" t="s">
-        <v>728</v>
       </c>
       <c r="AT50" s="130"/>
       <c r="AU50" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV50" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AW50" s="132"/>
       <c r="AX50" s="132"/>
@@ -10201,9 +10198,9 @@
       <c r="BH50" s="133"/>
       <c r="BI50" s="133"/>
     </row>
-    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="48" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B51" s="121"/>
       <c r="C51" s="121"/>
@@ -10216,7 +10213,7 @@
       <c r="J51" s="118"/>
       <c r="K51" s="118"/>
       <c r="L51" s="124" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="M51" s="124"/>
       <c r="N51" s="124"/>
@@ -10230,77 +10227,77 @@
       <c r="V51" s="99"/>
       <c r="W51" s="99"/>
       <c r="X51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Y51" s="130" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="Z51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AA51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AB51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AC51" s="130" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="AD51" s="130" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="AE51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AF51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AG51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AH51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AI51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AJ51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AK51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AL51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AM51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AN51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AO51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AP51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AQ51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AR51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AS51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AT51" s="130"/>
       <c r="AU51" s="130" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="AV51" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AW51" s="132"/>
       <c r="AX51" s="132"/>
@@ -10316,7 +10313,7 @@
       <c r="BH51" s="133"/>
       <c r="BI51" s="133"/>
     </row>
-    <row r="52" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="48" t="s">
         <v>245</v>
       </c>
@@ -10331,7 +10328,7 @@
       <c r="J52" s="118"/>
       <c r="K52" s="118"/>
       <c r="L52" s="124" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="M52" s="124"/>
       <c r="N52" s="124"/>
@@ -10345,77 +10342,77 @@
       <c r="V52" s="99"/>
       <c r="W52" s="99"/>
       <c r="X52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Y52" s="130" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="Z52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AA52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AB52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AC52" s="130" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="AD52" s="130" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="AE52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AF52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AG52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AH52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AI52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AJ52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AK52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AL52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AM52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AN52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AO52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AP52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AQ52" s="130" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="AR52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AS52" s="130" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="AT52" s="130"/>
       <c r="AU52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV52" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AW52" s="132"/>
       <c r="AX52" s="132"/>
@@ -10431,9 +10428,9 @@
       <c r="BH52" s="133"/>
       <c r="BI52" s="133"/>
     </row>
-    <row r="53" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="48" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B53" s="121"/>
       <c r="C53" s="121"/>
@@ -10446,7 +10443,7 @@
       <c r="J53" s="118"/>
       <c r="K53" s="118"/>
       <c r="L53" s="124" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="M53" s="124"/>
       <c r="N53" s="124"/>
@@ -10460,77 +10457,77 @@
       <c r="V53" s="99"/>
       <c r="W53" s="99"/>
       <c r="X53" s="130" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="Y53" s="130" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="Z53" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AA53" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AB53" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AC53" s="130" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="AD53" s="130" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="AE53" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AF53" s="130" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="AG53" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AH53" s="130" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="AI53" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AJ53" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AK53" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AL53" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AM53" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AN53" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AO53" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AP53" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AQ53" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AR53" s="130" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="AS53" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AT53" s="130"/>
       <c r="AU53" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV53" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AW53" s="132"/>
       <c r="AX53" s="132"/>
@@ -10546,7 +10543,7 @@
       <c r="BH53" s="133"/>
       <c r="BI53" s="133"/>
     </row>
-    <row r="54" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="48" t="s">
         <v>514</v>
       </c>
@@ -10561,7 +10558,7 @@
       <c r="J54" s="118"/>
       <c r="K54" s="118"/>
       <c r="L54" s="124" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="M54" s="124"/>
       <c r="N54" s="124"/>
@@ -10575,77 +10572,77 @@
       <c r="V54" s="99"/>
       <c r="W54" s="99"/>
       <c r="X54" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Y54" s="130" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="Z54" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AA54" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AB54" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AC54" s="130" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="AD54" s="130" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="AE54" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AF54" s="130" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="AG54" s="130" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="AH54" s="130" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="AI54" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AJ54" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AK54" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AL54" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AM54" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AN54" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AO54" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AP54" s="130" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="AQ54" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AR54" s="130" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="AS54" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AT54" s="130"/>
       <c r="AU54" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV54" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AW54" s="132"/>
       <c r="AX54" s="132"/>
@@ -10661,7 +10658,7 @@
       <c r="BH54" s="133"/>
       <c r="BI54" s="133"/>
     </row>
-    <row r="55" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="48" t="s">
         <v>513</v>
       </c>
@@ -10676,7 +10673,7 @@
       <c r="J55" s="118"/>
       <c r="K55" s="118"/>
       <c r="L55" s="124" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="M55" s="124"/>
       <c r="N55" s="124"/>
@@ -10690,77 +10687,77 @@
       <c r="V55" s="99"/>
       <c r="W55" s="99"/>
       <c r="X55" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Y55" s="130" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="Z55" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AA55" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AB55" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AC55" s="130" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="AD55" s="130" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="AE55" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AF55" s="130" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="AG55" s="130" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="AH55" s="130" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="AI55" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AJ55" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AK55" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AL55" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AM55" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AN55" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AO55" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AP55" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AQ55" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AR55" s="130" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="AS55" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AT55" s="130"/>
       <c r="AU55" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV55" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AW55" s="132"/>
       <c r="AX55" s="132"/>
@@ -10776,7 +10773,7 @@
       <c r="BH55" s="133"/>
       <c r="BI55" s="133"/>
     </row>
-    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="48" t="s">
         <v>4</v>
       </c>
@@ -10791,7 +10788,7 @@
       <c r="J56" s="118"/>
       <c r="K56" s="118"/>
       <c r="L56" s="124" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="M56" s="124"/>
       <c r="N56" s="124"/>
@@ -10805,77 +10802,77 @@
       <c r="V56" s="99"/>
       <c r="W56" s="99"/>
       <c r="X56" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Y56" s="130" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="Z56" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AA56" s="130" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="AB56" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AC56" s="130" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="AD56" s="130" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AE56" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AF56" s="130" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="AG56" s="130" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="AH56" s="130" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="AI56" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AJ56" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AK56" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AL56" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AM56" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AN56" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AO56" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AP56" s="130" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="AQ56" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AR56" s="130" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="AS56" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AT56" s="130"/>
       <c r="AU56" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV56" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AW56" s="132"/>
       <c r="AX56" s="132"/>
@@ -10891,7 +10888,7 @@
       <c r="BH56" s="133"/>
       <c r="BI56" s="133"/>
     </row>
-    <row r="57" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="48" t="s">
         <v>246</v>
       </c>
@@ -10906,7 +10903,7 @@
       <c r="J57" s="118"/>
       <c r="K57" s="118"/>
       <c r="L57" s="124" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="M57" s="124"/>
       <c r="N57" s="124"/>
@@ -10920,77 +10917,77 @@
       <c r="V57" s="99"/>
       <c r="W57" s="99"/>
       <c r="X57" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Y57" s="130" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="Z57" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AA57" s="130" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="AB57" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AC57" s="130" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="AD57" s="130" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="AE57" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AF57" s="130" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="AG57" s="130" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="AH57" s="130" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="AI57" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AJ57" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AK57" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AL57" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AM57" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AN57" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AO57" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AP57" s="130" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="AQ57" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AR57" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AS57" s="130" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="AT57" s="130"/>
       <c r="AU57" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV57" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AW57" s="132"/>
       <c r="AX57" s="132"/>
@@ -11006,7 +11003,7 @@
       <c r="BH57" s="133"/>
       <c r="BI57" s="133"/>
     </row>
-    <row r="58" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="48" t="s">
         <v>247</v>
       </c>
@@ -11021,7 +11018,7 @@
       <c r="J58" s="118"/>
       <c r="K58" s="118"/>
       <c r="L58" s="124" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="M58" s="124"/>
       <c r="N58" s="124"/>
@@ -11035,77 +11032,77 @@
       <c r="V58" s="99"/>
       <c r="W58" s="99"/>
       <c r="X58" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Y58" s="130" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="Z58" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AA58" s="130" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="AB58" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AC58" s="130" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="AD58" s="130" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="AE58" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AF58" s="130" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="AG58" s="130" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="AH58" s="130" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="AI58" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AJ58" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AK58" s="130" t="s">
+        <v>715</v>
+      </c>
+      <c r="AL58" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AM58" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AN58" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AO58" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AP58" s="130" t="s">
+        <v>755</v>
+      </c>
+      <c r="AQ58" s="130" t="s">
+        <v>716</v>
+      </c>
+      <c r="AR58" s="130" t="s">
+        <v>717</v>
+      </c>
+      <c r="AS58" s="130" t="s">
         <v>718</v>
-      </c>
-      <c r="AL58" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AM58" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AN58" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AO58" s="130" t="s">
-        <v>712</v>
-      </c>
-      <c r="AP58" s="130" t="s">
-        <v>758</v>
-      </c>
-      <c r="AQ58" s="130" t="s">
-        <v>719</v>
-      </c>
-      <c r="AR58" s="130" t="s">
-        <v>720</v>
-      </c>
-      <c r="AS58" s="130" t="s">
-        <v>721</v>
       </c>
       <c r="AT58" s="130"/>
       <c r="AU58" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV58" s="130" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="AW58" s="132"/>
       <c r="AX58" s="132"/>
@@ -11121,7 +11118,7 @@
       <c r="BH58" s="133"/>
       <c r="BI58" s="133"/>
     </row>
-    <row r="59" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="48" t="s">
         <v>248</v>
       </c>
@@ -11136,7 +11133,7 @@
       <c r="J59" s="118"/>
       <c r="K59" s="118"/>
       <c r="L59" s="124" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="M59" s="124"/>
       <c r="N59" s="124"/>
@@ -11150,77 +11147,77 @@
       <c r="V59" s="99"/>
       <c r="W59" s="99"/>
       <c r="X59" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Y59" s="130" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="Z59" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AA59" s="130" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="AB59" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AC59" s="130" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AD59" s="130" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="AE59" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AF59" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AG59" s="130" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="AH59" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AI59" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AJ59" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AK59" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AL59" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AM59" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AN59" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AO59" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AP59" s="130" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="AQ59" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AR59" s="130" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="AS59" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AT59" s="130"/>
       <c r="AU59" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV59" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AW59" s="132"/>
       <c r="AX59" s="132"/>
@@ -11236,7 +11233,7 @@
       <c r="BH59" s="133"/>
       <c r="BI59" s="133"/>
     </row>
-    <row r="60" spans="1:61" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:61" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="48" t="s">
         <v>511</v>
       </c>
@@ -11251,7 +11248,7 @@
       <c r="J60" s="118"/>
       <c r="K60" s="118"/>
       <c r="L60" s="124" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="M60" s="124"/>
       <c r="N60" s="124"/>
@@ -11265,77 +11262,77 @@
       <c r="V60" s="99"/>
       <c r="W60" s="99"/>
       <c r="X60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Y60" s="130" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="Z60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AA60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AB60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AC60" s="130" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="AD60" s="130" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="AE60" s="130" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="AF60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AG60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AH60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AI60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AJ60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AK60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AL60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AM60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AN60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AO60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AP60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AQ60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AR60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AS60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AT60" s="130"/>
       <c r="AU60" s="130" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV60" s="130" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="AW60" s="132"/>
       <c r="AX60" s="132"/>
@@ -11351,7 +11348,7 @@
       <c r="BH60" s="133"/>
       <c r="BI60" s="133"/>
     </row>
-    <row r="61" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A61" s="114" t="s">
         <v>484</v>
       </c>
@@ -11416,7 +11413,7 @@
       <c r="BH61" s="134"/>
       <c r="BI61" s="134"/>
     </row>
-    <row r="62" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A62" s="49" t="s">
         <v>112</v>
       </c>
@@ -11487,7 +11484,7 @@
       <c r="BH62" s="133"/>
       <c r="BI62" s="133"/>
     </row>
-    <row r="63" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A63" s="115" t="s">
         <v>481</v>
       </c>
@@ -11552,7 +11549,7 @@
       <c r="BH63" s="134"/>
       <c r="BI63" s="134"/>
     </row>
-    <row r="64" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A64" s="49" t="s">
         <v>112</v>
       </c>
@@ -11623,7 +11620,7 @@
       <c r="BH64" s="133"/>
       <c r="BI64" s="133"/>
     </row>
-    <row r="65" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A65" s="115" t="s">
         <v>480</v>
       </c>
@@ -11688,7 +11685,7 @@
       <c r="BH65" s="134"/>
       <c r="BI65" s="134"/>
     </row>
-    <row r="66" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A66" s="49" t="s">
         <v>112</v>
       </c>
@@ -11759,7 +11756,7 @@
       <c r="BH66" s="133"/>
       <c r="BI66" s="133"/>
     </row>
-    <row r="67" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A67" s="115" t="s">
         <v>485</v>
       </c>
@@ -11824,7 +11821,7 @@
       <c r="BH67" s="134"/>
       <c r="BI67" s="134"/>
     </row>
-    <row r="68" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A68" s="49" t="s">
         <v>112</v>
       </c>
@@ -11895,7 +11892,7 @@
       <c r="BH68" s="133"/>
       <c r="BI68" s="133"/>
     </row>
-    <row r="69" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A69" s="115" t="s">
         <v>490</v>
       </c>
@@ -11960,7 +11957,7 @@
       <c r="BH69" s="134"/>
       <c r="BI69" s="134"/>
     </row>
-    <row r="70" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A70" s="49" t="s">
         <v>112</v>
       </c>
@@ -12031,7 +12028,7 @@
       <c r="BH70" s="133"/>
       <c r="BI70" s="133"/>
     </row>
-    <row r="71" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A71" s="115" t="s">
         <v>491</v>
       </c>
@@ -12096,7 +12093,7 @@
       <c r="BH71" s="134"/>
       <c r="BI71" s="134"/>
     </row>
-    <row r="72" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A72" s="49" t="s">
         <v>112</v>
       </c>
@@ -12167,7 +12164,7 @@
       <c r="BH72" s="133"/>
       <c r="BI72" s="133"/>
     </row>
-    <row r="73" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A73" s="115" t="s">
         <v>487</v>
       </c>
@@ -12232,7 +12229,7 @@
       <c r="BH73" s="134"/>
       <c r="BI73" s="134"/>
     </row>
-    <row r="74" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A74" s="49" t="s">
         <v>112</v>
       </c>
@@ -12303,7 +12300,7 @@
       <c r="BH74" s="133"/>
       <c r="BI74" s="133"/>
     </row>
-    <row r="75" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A75" s="115" t="s">
         <v>482</v>
       </c>
@@ -12368,7 +12365,7 @@
       <c r="BH75" s="134"/>
       <c r="BI75" s="134"/>
     </row>
-    <row r="76" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A76" s="49" t="s">
         <v>112</v>
       </c>
@@ -12439,7 +12436,7 @@
       <c r="BH76" s="133"/>
       <c r="BI76" s="133"/>
     </row>
-    <row r="77" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A77" s="115" t="s">
         <v>479</v>
       </c>
@@ -12504,7 +12501,7 @@
       <c r="BH77" s="134"/>
       <c r="BI77" s="134"/>
     </row>
-    <row r="78" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A78" s="49" t="s">
         <v>112</v>
       </c>
@@ -12575,7 +12572,7 @@
       <c r="BH78" s="133"/>
       <c r="BI78" s="133"/>
     </row>
-    <row r="79" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A79" s="115" t="s">
         <v>488</v>
       </c>
@@ -12640,7 +12637,7 @@
       <c r="BH79" s="134"/>
       <c r="BI79" s="134"/>
     </row>
-    <row r="80" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A80" s="49" t="s">
         <v>112</v>
       </c>
@@ -12711,7 +12708,7 @@
       <c r="BH80" s="133"/>
       <c r="BI80" s="133"/>
     </row>
-    <row r="81" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A81" s="115" t="s">
         <v>489</v>
       </c>
@@ -12776,7 +12773,7 @@
       <c r="BH81" s="134"/>
       <c r="BI81" s="134"/>
     </row>
-    <row r="82" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A82" s="49" t="s">
         <v>112</v>
       </c>
@@ -12847,7 +12844,7 @@
       <c r="BH82" s="133"/>
       <c r="BI82" s="133"/>
     </row>
-    <row r="83" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A83" s="115" t="s">
         <v>483</v>
       </c>
@@ -12912,7 +12909,7 @@
       <c r="BH83" s="134"/>
       <c r="BI83" s="134"/>
     </row>
-    <row r="84" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A84" s="49" t="s">
         <v>112</v>
       </c>
@@ -12983,7 +12980,7 @@
       <c r="BH84" s="133"/>
       <c r="BI84" s="133"/>
     </row>
-    <row r="85" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:61" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A85" s="115" t="s">
         <v>486</v>
       </c>
@@ -13048,7 +13045,7 @@
       <c r="BH85" s="134"/>
       <c r="BI85" s="134"/>
     </row>
-    <row r="86" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:61" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="49" t="s">
         <v>112</v>
       </c>
@@ -13130,24 +13127,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="26.7109375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="18.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="26.68359375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="26.68359375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.68359375" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.68359375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="26.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="12"/>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -13167,7 +13164,7 @@
       <c r="Q1" s="112"/>
       <c r="R1" s="112"/>
     </row>
-    <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="135" t="s">
         <v>11</v>
       </c>
@@ -13223,27 +13220,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="116" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C3" s="110" t="s">
+        <v>821</v>
+      </c>
+      <c r="D3" s="110" t="s">
         <v>825</v>
       </c>
-      <c r="D3" s="110" t="s">
-        <v>829</v>
-      </c>
       <c r="E3" s="110" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="F3" s="110" t="s">
         <v>55</v>
       </c>
       <c r="G3" s="110" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="H3" s="101" t="s">
         <v>555</v>
@@ -13252,34 +13249,34 @@
         <v>599</v>
       </c>
       <c r="J3" s="133" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K3" s="133" t="s">
+        <v>671</v>
+      </c>
+      <c r="L3" s="133" t="s">
+        <v>672</v>
+      </c>
+      <c r="M3" s="133" t="s">
+        <v>673</v>
+      </c>
+      <c r="N3" s="133" t="s">
         <v>674</v>
       </c>
-      <c r="L3" s="133" t="s">
+      <c r="O3" s="133" t="s">
         <v>675</v>
       </c>
-      <c r="M3" s="133" t="s">
+      <c r="P3" s="133" t="s">
         <v>676</v>
       </c>
-      <c r="N3" s="133" t="s">
+      <c r="Q3" s="133" t="s">
         <v>677</v>
       </c>
-      <c r="O3" s="133" t="s">
+      <c r="R3" s="133" t="s">
         <v>678</v>
       </c>
-      <c r="P3" s="133" t="s">
-        <v>679</v>
-      </c>
-      <c r="Q3" s="133" t="s">
-        <v>680</v>
-      </c>
-      <c r="R3" s="133" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="116" t="s">
         <v>575</v>
       </c>
@@ -13292,34 +13289,34 @@
       <c r="H4" s="111"/>
       <c r="I4" s="111"/>
       <c r="J4" s="133" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="K4" s="133" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="L4" s="133" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="M4" s="133" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="N4" s="133" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="O4" s="133" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="P4" s="133" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="Q4" s="133" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="R4" s="133"/>
     </row>
-    <row r="5" spans="1:18" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="23" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="116" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B5" s="111"/>
       <c r="C5" s="111"/>
@@ -13330,32 +13327,32 @@
       <c r="H5" s="111"/>
       <c r="I5" s="111"/>
       <c r="J5" s="137" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="K5" s="137" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L5" s="137" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="M5" s="137" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="N5" s="137" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="O5" s="137" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="P5" s="137" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="Q5" s="137" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="R5" s="133"/>
     </row>
-    <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="135"/>
       <c r="B6" s="120" t="s">
         <v>2</v>
@@ -13407,7 +13404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="116" t="s">
         <v>59</v>
       </c>
@@ -13463,21 +13460,21 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="116" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C8" s="51" t="s">
+        <v>822</v>
+      </c>
+      <c r="D8" s="51" t="s">
         <v>826</v>
       </c>
-      <c r="D8" s="51" t="s">
-        <v>830</v>
-      </c>
       <c r="E8" s="51" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F8" s="51" t="s">
         <v>561</v>
@@ -13519,7 +13516,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="135"/>
       <c r="B9" s="120" t="s">
         <v>2</v>
@@ -13571,7 +13568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="116" t="s">
         <v>59</v>
       </c>
@@ -13627,21 +13624,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="116" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F11" s="51" t="s">
         <v>562</v>
@@ -13683,7 +13680,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="135"/>
       <c r="B12" s="120"/>
       <c r="C12" s="120" t="s">
@@ -13733,7 +13730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="116" t="s">
         <v>59</v>
       </c>
@@ -13745,7 +13742,7 @@
         <v>433</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F13" s="51" t="s">
         <v>12</v>
@@ -13787,25 +13784,25 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="116" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H14" s="51" t="s">
         <v>558</v>
@@ -13814,34 +13811,34 @@
         <v>602</v>
       </c>
       <c r="J14" s="133" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K14" s="133" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L14" s="133" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M14" s="133" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="N14" s="133" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O14" s="133" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="P14" s="133" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Q14" s="133" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R14" s="133" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="135"/>
       <c r="B15" s="120"/>
       <c r="C15" s="120"/>
@@ -13887,7 +13884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="116" t="s">
         <v>59</v>
       </c>
@@ -13935,7 +13932,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="116" t="s">
         <v>53</v>
       </c>
@@ -13943,47 +13940,47 @@
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
       <c r="E17" s="51" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H17" s="51" t="s">
         <v>559</v>
       </c>
       <c r="I17" s="51"/>
       <c r="J17" s="133" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K17" s="133" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L17" s="133" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M17" s="133" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N17" s="133" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O17" s="133" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P17" s="133" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q17" s="133" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="R17" s="133" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="135"/>
       <c r="B18" s="120"/>
       <c r="C18" s="120"/>
@@ -14031,7 +14028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="116" t="s">
         <v>59</v>
       </c>
@@ -14039,7 +14036,7 @@
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
       <c r="E19" s="51" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -14075,7 +14072,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="116" t="s">
         <v>53</v>
       </c>
@@ -14083,7 +14080,7 @@
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
       <c r="E20" s="51" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -14119,7 +14116,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="135"/>
       <c r="B21" s="120"/>
       <c r="C21" s="120"/>
@@ -14167,7 +14164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="116" t="s">
         <v>59</v>
       </c>
@@ -14211,7 +14208,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="116" t="s">
         <v>53</v>
       </c>
@@ -14219,12 +14216,12 @@
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
       <c r="E23" s="51" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
       <c r="H23" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I23" s="51"/>
       <c r="J23" s="133" t="s">
@@ -14255,7 +14252,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="135"/>
       <c r="B24" s="120"/>
       <c r="C24" s="120"/>
@@ -14303,7 +14300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="116" t="s">
         <v>59</v>
       </c>
@@ -14345,7 +14342,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="116" t="s">
         <v>53</v>
       </c>
@@ -14356,7 +14353,7 @@
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
       <c r="H26" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I26" s="51"/>
       <c r="J26" s="133" t="s">
@@ -14387,7 +14384,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="135"/>
       <c r="B27" s="120"/>
       <c r="C27" s="120"/>
@@ -14435,7 +14432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="116" t="s">
         <v>59</v>
       </c>
@@ -14475,7 +14472,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="116" t="s">
         <v>53</v>
       </c>
@@ -14515,7 +14512,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="135"/>
       <c r="B30" s="120"/>
       <c r="C30" s="120"/>
@@ -14563,7 +14560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="116" t="s">
         <v>59</v>
       </c>
@@ -14603,7 +14600,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="116" t="s">
         <v>53</v>
       </c>
@@ -14643,7 +14640,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="135"/>
       <c r="B33" s="120"/>
       <c r="C33" s="120"/>
@@ -14691,7 +14688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="116" t="s">
         <v>59</v>
       </c>
@@ -14731,7 +14728,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="116" t="s">
         <v>53</v>
       </c>
@@ -14771,7 +14768,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="135"/>
       <c r="B36" s="120"/>
       <c r="C36" s="120"/>
@@ -14819,7 +14816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="116" t="s">
         <v>59</v>
       </c>
@@ -14859,7 +14856,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="116" t="s">
         <v>53</v>
       </c>
@@ -14899,7 +14896,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A39" s="135"/>
       <c r="B39" s="120"/>
       <c r="C39" s="120"/>
@@ -14947,7 +14944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="116" t="s">
         <v>59</v>
       </c>
@@ -14985,7 +14982,7 @@
       </c>
       <c r="R40" s="133"/>
     </row>
-    <row r="41" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" s="116" t="s">
         <v>53</v>
       </c>
@@ -15023,7 +15020,7 @@
       </c>
       <c r="R41" s="133"/>
     </row>
-    <row r="42" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A42" s="135"/>
       <c r="B42" s="120"/>
       <c r="C42" s="120"/>
@@ -15071,7 +15068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="116" t="s">
         <v>59</v>
       </c>
@@ -15109,7 +15106,7 @@
       </c>
       <c r="R43" s="133"/>
     </row>
-    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="116" t="s">
         <v>53</v>
       </c>
@@ -15147,7 +15144,7 @@
       </c>
       <c r="R44" s="133"/>
     </row>
-    <row r="45" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A45" s="135"/>
       <c r="B45" s="120"/>
       <c r="C45" s="120"/>
@@ -15195,7 +15192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="116" t="s">
         <v>59</v>
       </c>
@@ -15208,32 +15205,32 @@
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
       <c r="J46" s="133" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="K46" s="133" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="L46" s="133" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="M46" s="133" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="N46" s="133" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="O46" s="133" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="P46" s="133" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="Q46" s="133" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="R46" s="133"/>
     </row>
-    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="116" t="s">
         <v>53</v>
       </c>
@@ -15246,32 +15243,32 @@
       <c r="H47" s="51"/>
       <c r="I47" s="51"/>
       <c r="J47" s="133" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K47" s="133" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="L47" s="133" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="M47" s="133" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="N47" s="133" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="O47" s="133" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="P47" s="133" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="Q47" s="133" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="R47" s="133"/>
     </row>
-    <row r="48" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A48" s="135"/>
       <c r="B48" s="120"/>
       <c r="C48" s="120"/>
@@ -15319,7 +15316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="116" t="s">
         <v>59</v>
       </c>
@@ -15332,32 +15329,32 @@
       <c r="H49" s="51"/>
       <c r="I49" s="51"/>
       <c r="J49" s="133" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K49" s="133" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="L49" s="133" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="M49" s="133" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N49" s="133" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="O49" s="133" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="P49" s="133" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="Q49" s="133" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="R49" s="133"/>
     </row>
-    <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A50" s="116" t="s">
         <v>53</v>
       </c>
@@ -15370,32 +15367,32 @@
       <c r="H50" s="51"/>
       <c r="I50" s="51"/>
       <c r="J50" s="133" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="K50" s="133" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L50" s="133" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="M50" s="133" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="N50" s="133" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="O50" s="133" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="P50" s="133" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="Q50" s="133" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="R50" s="133"/>
     </row>
-    <row r="51" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A51" s="135"/>
       <c r="B51" s="120"/>
       <c r="C51" s="120"/>
@@ -15443,7 +15440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="116" t="s">
         <v>59</v>
       </c>
@@ -15456,32 +15453,32 @@
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
       <c r="J52" s="133" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="K52" s="133" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="L52" s="133" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="M52" s="133" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N52" s="133" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="O52" s="133" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="P52" s="133" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="Q52" s="133" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="R52" s="133"/>
     </row>
-    <row r="53" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A53" s="116" t="s">
         <v>53</v>
       </c>
@@ -15494,32 +15491,32 @@
       <c r="H53" s="51"/>
       <c r="I53" s="51"/>
       <c r="J53" s="133" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K53" s="133" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="L53" s="133" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M53" s="133" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="N53" s="133" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="O53" s="133" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="P53" s="133" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="Q53" s="133" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="R53" s="133"/>
     </row>
-    <row r="54" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A54" s="135"/>
       <c r="B54" s="120"/>
       <c r="C54" s="120"/>
@@ -15567,7 +15564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="116" t="s">
         <v>59</v>
       </c>
@@ -15580,32 +15577,32 @@
       <c r="H55" s="51"/>
       <c r="I55" s="51"/>
       <c r="J55" s="133" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="K55" s="133" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L55" s="133" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M55" s="133" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="N55" s="133" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="O55" s="133" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="P55" s="133" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="Q55" s="133" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="R55" s="133"/>
     </row>
-    <row r="56" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A56" s="116" t="s">
         <v>53</v>
       </c>
@@ -15618,32 +15615,32 @@
       <c r="H56" s="51"/>
       <c r="I56" s="51"/>
       <c r="J56" s="133" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="K56" s="133" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="L56" s="133" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M56" s="133" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="N56" s="133" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="O56" s="133" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="P56" s="133" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="Q56" s="133" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="R56" s="133"/>
     </row>
-    <row r="57" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A57" s="135"/>
       <c r="B57" s="120"/>
       <c r="C57" s="120"/>
@@ -15691,7 +15688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="116" t="s">
         <v>59</v>
       </c>
@@ -15704,32 +15701,32 @@
       <c r="H58" s="51"/>
       <c r="I58" s="51"/>
       <c r="J58" s="133" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K58" s="133" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="L58" s="133" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="M58" s="133" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="N58" s="133" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="O58" s="133" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="P58" s="133" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="Q58" s="133" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="R58" s="133"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="116" t="s">
         <v>53</v>
       </c>
@@ -15742,28 +15739,28 @@
       <c r="H59" s="51"/>
       <c r="I59" s="51"/>
       <c r="J59" s="133" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K59" s="133" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="L59" s="133" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="M59" s="133" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="N59" s="133" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="O59" s="133" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="P59" s="133" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="Q59" s="133" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="R59" s="133"/>
     </row>
@@ -15782,25 +15779,25 @@
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="23" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.41796875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="23.68359375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.68359375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="19.83984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.26171875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.68359375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.15625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.41796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.68359375" style="23" customWidth="1"/>
+    <col min="14" max="14" width="28.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="14" t="s">
         <v>74</v>
       </c>
@@ -15818,7 +15815,7 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -15862,7 +15859,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -15878,7 +15875,7 @@
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>85</v>
       </c>
@@ -15922,7 +15919,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -15938,7 +15935,7 @@
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
@@ -15982,7 +15979,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -16026,7 +16023,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -16070,7 +16067,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -16114,7 +16111,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -16158,7 +16155,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
         <v>80</v>
       </c>
@@ -16202,7 +16199,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>81</v>
       </c>
@@ -16246,7 +16243,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16290,7 +16287,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="13" t="s">
         <v>507</v>
       </c>
@@ -16334,7 +16331,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -16378,7 +16375,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>98</v>
       </c>
@@ -16422,7 +16419,7 @@
         <v>0.78959979999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="13" t="s">
         <v>507</v>
       </c>
@@ -16466,7 +16463,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
@@ -16510,7 +16507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="19" t="s">
         <v>98</v>
       </c>
@@ -16554,7 +16551,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="13" t="s">
         <v>507</v>
       </c>
@@ -16598,7 +16595,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>2</v>
       </c>
@@ -16642,7 +16639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="19" t="s">
         <v>98</v>
       </c>
@@ -16686,7 +16683,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="13" t="s">
         <v>507</v>
       </c>
@@ -16730,7 +16727,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="19" t="s">
         <v>2</v>
       </c>
@@ -16752,7 +16749,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="19" t="s">
         <v>98</v>
       </c>
@@ -16774,7 +16771,7 @@
         <v>1.9999999999999999E-7</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="13" t="s">
         <v>509</v>
       </c>
@@ -16818,7 +16815,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="19" t="s">
         <v>2</v>
       </c>
@@ -16838,7 +16835,7 @@
       </c>
       <c r="N27" s="20"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="19" t="s">
         <v>53</v>
       </c>
@@ -16871,14 +16868,14 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="17.42578125" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="35.68359375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="17.41796875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.15625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="21" t="s">
         <v>133</v>
       </c>
@@ -16887,7 +16884,7 @@
       <c r="D1" s="21"/>
       <c r="E1" s="52"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
@@ -16904,14 +16901,14 @@
         <v>545</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="52"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>127</v>
       </c>
@@ -16928,7 +16925,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>128</v>
       </c>
@@ -16945,7 +16942,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>54</v>
       </c>
@@ -16962,7 +16959,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>173</v>
       </c>
@@ -16979,7 +16976,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>129</v>
       </c>
@@ -16996,7 +16993,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>103</v>
       </c>
@@ -17026,18 +17023,18 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="37.41796875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.41796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="34.578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.68359375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="22.15625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="18.578125" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="9.15625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="34" t="s">
         <v>144</v>
       </c>
@@ -17057,7 +17054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="39" t="s">
         <v>140</v>
       </c>
@@ -17071,7 +17068,7 @@
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="41" t="s">
         <v>140</v>
       </c>
@@ -17085,7 +17082,7 @@
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="41" t="s">
         <v>140</v>
       </c>
@@ -17099,7 +17096,7 @@
       <c r="E4" s="42"/>
       <c r="F4" s="42"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41" t="s">
         <v>140</v>
       </c>
@@ -17113,7 +17110,7 @@
       <c r="E5" s="42"/>
       <c r="F5" s="42"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="41" t="s">
         <v>140</v>
       </c>
@@ -17127,7 +17124,7 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="41" t="s">
         <v>140</v>
       </c>
@@ -17141,7 +17138,7 @@
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="41" t="s">
         <v>140</v>
       </c>
@@ -17155,7 +17152,7 @@
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="41" t="s">
         <v>140</v>
       </c>
@@ -17169,7 +17166,7 @@
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="41" t="s">
         <v>140</v>
       </c>
@@ -17183,7 +17180,7 @@
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="31" t="s">
         <v>152</v>
       </c>
@@ -17195,7 +17192,7 @@
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="31" t="s">
         <v>153</v>
       </c>
@@ -17207,7 +17204,7 @@
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="36" t="s">
         <v>154</v>
       </c>
@@ -17219,7 +17216,7 @@
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="43" t="s">
         <v>161</v>
       </c>
@@ -17231,7 +17228,7 @@
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="34" t="s">
         <v>286</v>
       </c>
@@ -17251,7 +17248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="39" t="s">
         <v>140</v>
       </c>
@@ -17265,7 +17262,7 @@
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="41" t="s">
         <v>140</v>
       </c>
@@ -17279,7 +17276,7 @@
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="41" t="s">
         <v>140</v>
       </c>
@@ -17293,7 +17290,7 @@
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="41" t="s">
         <v>140</v>
       </c>
@@ -17307,7 +17304,7 @@
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="41" t="s">
         <v>140</v>
       </c>
@@ -17321,7 +17318,7 @@
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="41" t="s">
         <v>140</v>
       </c>
@@ -17335,7 +17332,7 @@
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="41" t="s">
         <v>140</v>
       </c>
@@ -17349,7 +17346,7 @@
       <c r="E22" s="42"/>
       <c r="F22" s="42"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="41" t="s">
         <v>140</v>
       </c>
@@ -17363,7 +17360,7 @@
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="41" t="s">
         <v>140</v>
       </c>
@@ -17377,7 +17374,7 @@
       <c r="E24" s="42"/>
       <c r="F24" s="42"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="41" t="s">
         <v>140</v>
       </c>
@@ -17391,7 +17388,7 @@
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="41" t="s">
         <v>140</v>
       </c>
@@ -17405,7 +17402,7 @@
       <c r="E26" s="42"/>
       <c r="F26" s="42"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="31" t="s">
         <v>152</v>
       </c>
@@ -17417,7 +17414,7 @@
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="31" t="s">
         <v>153</v>
       </c>
@@ -17429,7 +17426,7 @@
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="36" t="s">
         <v>154</v>
       </c>
@@ -17441,7 +17438,7 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="43" t="s">
         <v>161</v>
       </c>
@@ -17453,7 +17450,7 @@
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="29" t="s">
         <v>157</v>
       </c>
@@ -17473,7 +17470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="39" t="s">
         <v>140</v>
       </c>
@@ -17487,7 +17484,7 @@
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="41" t="s">
         <v>140</v>
       </c>
@@ -17501,7 +17498,7 @@
       <c r="E33" s="42"/>
       <c r="F33" s="42"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="41" t="s">
         <v>140</v>
       </c>
@@ -17515,7 +17512,7 @@
       <c r="E34" s="42"/>
       <c r="F34" s="42"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="41" t="s">
         <v>140</v>
       </c>
@@ -17529,7 +17526,7 @@
       <c r="E35" s="42"/>
       <c r="F35" s="42"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="41" t="s">
         <v>140</v>
       </c>
@@ -17543,7 +17540,7 @@
       <c r="E36" s="42"/>
       <c r="F36" s="42"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="41" t="s">
         <v>140</v>
       </c>
@@ -17557,7 +17554,7 @@
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="41" t="s">
         <v>140</v>
       </c>
@@ -17571,7 +17568,7 @@
       <c r="E38" s="42"/>
       <c r="F38" s="42"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="41" t="s">
         <v>140</v>
       </c>
@@ -17585,7 +17582,7 @@
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="41" t="s">
         <v>140</v>
       </c>
@@ -17599,7 +17596,7 @@
       <c r="E40" s="42"/>
       <c r="F40" s="42"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="41" t="s">
         <v>140</v>
       </c>
@@ -17613,7 +17610,7 @@
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="41" t="s">
         <v>140</v>
       </c>
@@ -17627,7 +17624,7 @@
       <c r="E42" s="42"/>
       <c r="F42" s="42"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="31" t="s">
         <v>152</v>
       </c>
@@ -17639,7 +17636,7 @@
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="31" t="s">
         <v>153</v>
       </c>
@@ -17651,7 +17648,7 @@
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A45" s="31" t="s">
         <v>154</v>
       </c>
@@ -17663,7 +17660,7 @@
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A46" s="43" t="s">
         <v>161</v>
       </c>
@@ -17675,7 +17672,7 @@
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="29" t="s">
         <v>159</v>
       </c>
@@ -17695,7 +17692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="39" t="s">
         <v>140</v>
       </c>
@@ -17709,7 +17706,7 @@
       <c r="E48" s="40"/>
       <c r="F48" s="40"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="41" t="s">
         <v>140</v>
       </c>
@@ -17723,7 +17720,7 @@
       <c r="E49" s="42"/>
       <c r="F49" s="42"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="41" t="s">
         <v>140</v>
       </c>
@@ -17737,7 +17734,7 @@
       <c r="E50" s="42"/>
       <c r="F50" s="42"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="41" t="s">
         <v>140</v>
       </c>
@@ -17751,7 +17748,7 @@
       <c r="E51" s="42"/>
       <c r="F51" s="42"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="41" t="s">
         <v>140</v>
       </c>
@@ -17765,7 +17762,7 @@
       <c r="E52" s="42"/>
       <c r="F52" s="42"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="41" t="s">
         <v>140</v>
       </c>
@@ -17779,7 +17776,7 @@
       <c r="E53" s="42"/>
       <c r="F53" s="42"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="41" t="s">
         <v>140</v>
       </c>
@@ -17793,7 +17790,7 @@
       <c r="E54" s="42"/>
       <c r="F54" s="42"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="41" t="s">
         <v>140</v>
       </c>
@@ -17807,7 +17804,7 @@
       <c r="E55" s="42"/>
       <c r="F55" s="42"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="41" t="s">
         <v>140</v>
       </c>
@@ -17821,7 +17818,7 @@
       <c r="E56" s="42"/>
       <c r="F56" s="42"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="41" t="s">
         <v>140</v>
       </c>
@@ -17835,7 +17832,7 @@
       <c r="E57" s="42"/>
       <c r="F57" s="42"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="41" t="s">
         <v>140</v>
       </c>
@@ -17849,7 +17846,7 @@
       <c r="E58" s="42"/>
       <c r="F58" s="42"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="31" t="s">
         <v>152</v>
       </c>
@@ -17861,7 +17858,7 @@
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="31" t="s">
         <v>153</v>
       </c>
@@ -17873,7 +17870,7 @@
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
     </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A61" s="31" t="s">
         <v>154</v>
       </c>
@@ -17885,7 +17882,7 @@
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
     </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A62" s="43" t="s">
         <v>161</v>
       </c>
@@ -17897,7 +17894,7 @@
       <c r="E62" s="38"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A63" s="29" t="s">
         <v>497</v>
       </c>
@@ -17917,7 +17914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="39" t="s">
         <v>140</v>
       </c>
@@ -17931,7 +17928,7 @@
       <c r="E64" s="40"/>
       <c r="F64" s="40"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="41" t="s">
         <v>140</v>
       </c>
@@ -17945,7 +17942,7 @@
       <c r="E65" s="42"/>
       <c r="F65" s="42"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="41" t="s">
         <v>140</v>
       </c>
@@ -17959,7 +17956,7 @@
       <c r="E66" s="42"/>
       <c r="F66" s="42"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="41" t="s">
         <v>140</v>
       </c>
@@ -17973,7 +17970,7 @@
       <c r="E67" s="42"/>
       <c r="F67" s="42"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="41" t="s">
         <v>140</v>
       </c>
@@ -17987,7 +17984,7 @@
       <c r="E68" s="42"/>
       <c r="F68" s="42"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="41" t="s">
         <v>140</v>
       </c>
@@ -18001,7 +17998,7 @@
       <c r="E69" s="42"/>
       <c r="F69" s="42"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="41" t="s">
         <v>140</v>
       </c>
@@ -18015,7 +18012,7 @@
       <c r="E70" s="42"/>
       <c r="F70" s="42"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="41" t="s">
         <v>140</v>
       </c>
@@ -18029,7 +18026,7 @@
       <c r="E71" s="42"/>
       <c r="F71" s="42"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="41" t="s">
         <v>140</v>
       </c>
@@ -18043,7 +18040,7 @@
       <c r="E72" s="42"/>
       <c r="F72" s="42"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="41" t="s">
         <v>140</v>
       </c>
@@ -18057,7 +18054,7 @@
       <c r="E73" s="42"/>
       <c r="F73" s="42"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="41" t="s">
         <v>140</v>
       </c>
@@ -18071,7 +18068,7 @@
       <c r="E74" s="42"/>
       <c r="F74" s="42"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="31" t="s">
         <v>152</v>
       </c>
@@ -18083,7 +18080,7 @@
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="31" t="s">
         <v>153</v>
       </c>
@@ -18095,7 +18092,7 @@
       <c r="E76" s="33"/>
       <c r="F76" s="33"/>
     </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A77" s="31" t="s">
         <v>154</v>
       </c>
@@ -18107,7 +18104,7 @@
       <c r="E77" s="33"/>
       <c r="F77" s="33"/>
     </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A78" s="43" t="s">
         <v>161</v>
       </c>
@@ -18119,7 +18116,7 @@
       <c r="E78" s="38"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A79" s="34" t="s">
         <v>194</v>
       </c>
@@ -18139,7 +18136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="39" t="s">
         <v>140</v>
       </c>
@@ -18153,7 +18150,7 @@
       <c r="E80" s="40"/>
       <c r="F80" s="40"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="39" t="s">
         <v>140</v>
       </c>
@@ -18167,7 +18164,7 @@
       <c r="E81" s="40"/>
       <c r="F81" s="40"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="39" t="s">
         <v>140</v>
       </c>
@@ -18181,7 +18178,7 @@
       <c r="E82" s="40"/>
       <c r="F82" s="40"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="41" t="s">
         <v>140</v>
       </c>
@@ -18195,7 +18192,7 @@
       <c r="E83" s="42"/>
       <c r="F83" s="42"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="41" t="s">
         <v>140</v>
       </c>
@@ -18209,7 +18206,7 @@
       <c r="E84" s="42"/>
       <c r="F84" s="42"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="41" t="s">
         <v>140</v>
       </c>
@@ -18223,7 +18220,7 @@
       <c r="E85" s="42"/>
       <c r="F85" s="42"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="41" t="s">
         <v>140</v>
       </c>
@@ -18237,7 +18234,7 @@
       <c r="E86" s="42"/>
       <c r="F86" s="42"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="41" t="s">
         <v>140</v>
       </c>
@@ -18251,7 +18248,7 @@
       <c r="E87" s="42"/>
       <c r="F87" s="42"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="41" t="s">
         <v>140</v>
       </c>
@@ -18265,7 +18262,7 @@
       <c r="E88" s="42"/>
       <c r="F88" s="42"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="41" t="s">
         <v>140</v>
       </c>
@@ -18279,7 +18276,7 @@
       <c r="E89" s="42"/>
       <c r="F89" s="42"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="41" t="s">
         <v>140</v>
       </c>
@@ -18293,7 +18290,7 @@
       <c r="E90" s="42"/>
       <c r="F90" s="42"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="31" t="s">
         <v>152</v>
       </c>
@@ -18305,7 +18302,7 @@
       <c r="E91" s="33"/>
       <c r="F91" s="33"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="31" t="s">
         <v>153</v>
       </c>
@@ -18317,7 +18314,7 @@
       <c r="E92" s="33"/>
       <c r="F92" s="33"/>
     </row>
-    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A93" s="36" t="s">
         <v>154</v>
       </c>
@@ -18329,7 +18326,7 @@
       <c r="E93" s="38"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A94" s="43" t="s">
         <v>161</v>
       </c>
@@ -18341,7 +18338,7 @@
       <c r="E94" s="38"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A95" s="34" t="s">
         <v>181</v>
       </c>
@@ -18361,7 +18358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="39" t="s">
         <v>140</v>
       </c>
@@ -18375,7 +18372,7 @@
       <c r="E96" s="40"/>
       <c r="F96" s="40"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="39" t="s">
         <v>140</v>
       </c>
@@ -18389,7 +18386,7 @@
       <c r="E97" s="40"/>
       <c r="F97" s="40"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="39" t="s">
         <v>140</v>
       </c>
@@ -18403,7 +18400,7 @@
       <c r="E98" s="40"/>
       <c r="F98" s="40"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="39" t="s">
         <v>140</v>
       </c>
@@ -18417,7 +18414,7 @@
       <c r="E99" s="40"/>
       <c r="F99" s="40"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="41" t="s">
         <v>140</v>
       </c>
@@ -18431,7 +18428,7 @@
       <c r="E100" s="42"/>
       <c r="F100" s="42"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="41" t="s">
         <v>140</v>
       </c>
@@ -18445,7 +18442,7 @@
       <c r="E101" s="42"/>
       <c r="F101" s="42"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="41" t="s">
         <v>140</v>
       </c>
@@ -18459,7 +18456,7 @@
       <c r="E102" s="42"/>
       <c r="F102" s="42"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="41" t="s">
         <v>140</v>
       </c>
@@ -18473,7 +18470,7 @@
       <c r="E103" s="42"/>
       <c r="F103" s="42"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="41" t="s">
         <v>140</v>
       </c>
@@ -18487,7 +18484,7 @@
       <c r="E104" s="42"/>
       <c r="F104" s="42"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="41" t="s">
         <v>140</v>
       </c>
@@ -18501,7 +18498,7 @@
       <c r="E105" s="42"/>
       <c r="F105" s="42"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="41" t="s">
         <v>140</v>
       </c>
@@ -18515,7 +18512,7 @@
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="31" t="s">
         <v>152</v>
       </c>
@@ -18527,7 +18524,7 @@
       <c r="E107" s="33"/>
       <c r="F107" s="33"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="31" t="s">
         <v>153</v>
       </c>
@@ -18539,7 +18536,7 @@
       <c r="E108" s="33"/>
       <c r="F108" s="33"/>
     </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A109" s="36" t="s">
         <v>154</v>
       </c>
@@ -18551,7 +18548,7 @@
       <c r="E109" s="38"/>
       <c r="F109" s="38"/>
     </row>
-    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A110" s="43" t="s">
         <v>161</v>
       </c>
@@ -18563,7 +18560,7 @@
       <c r="E110" s="38"/>
       <c r="F110" s="38"/>
     </row>
-    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A111" s="34" t="s">
         <v>191</v>
       </c>
@@ -18583,7 +18580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="39" t="s">
         <v>140</v>
       </c>
@@ -18597,7 +18594,7 @@
       <c r="E112" s="40"/>
       <c r="F112" s="40"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="41" t="s">
         <v>140</v>
       </c>
@@ -18611,7 +18608,7 @@
       <c r="E113" s="42"/>
       <c r="F113" s="42"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="41" t="s">
         <v>140</v>
       </c>
@@ -18625,7 +18622,7 @@
       <c r="E114" s="42"/>
       <c r="F114" s="42"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="41" t="s">
         <v>140</v>
       </c>
@@ -18639,7 +18636,7 @@
       <c r="E115" s="42"/>
       <c r="F115" s="42"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="41" t="s">
         <v>140</v>
       </c>
@@ -18653,7 +18650,7 @@
       <c r="E116" s="42"/>
       <c r="F116" s="42"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="41" t="s">
         <v>140</v>
       </c>
@@ -18667,7 +18664,7 @@
       <c r="E117" s="42"/>
       <c r="F117" s="42"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="41" t="s">
         <v>140</v>
       </c>
@@ -18681,7 +18678,7 @@
       <c r="E118" s="42"/>
       <c r="F118" s="42"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="41" t="s">
         <v>140</v>
       </c>
@@ -18695,7 +18692,7 @@
       <c r="E119" s="42"/>
       <c r="F119" s="42"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="41" t="s">
         <v>140</v>
       </c>
@@ -18709,7 +18706,7 @@
       <c r="E120" s="42"/>
       <c r="F120" s="42"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="41" t="s">
         <v>140</v>
       </c>
@@ -18723,7 +18720,7 @@
       <c r="E121" s="42"/>
       <c r="F121" s="42"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="41" t="s">
         <v>140</v>
       </c>
@@ -18737,7 +18734,7 @@
       <c r="E122" s="42"/>
       <c r="F122" s="42"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="31" t="s">
         <v>152</v>
       </c>
@@ -18749,7 +18746,7 @@
       <c r="E123" s="33"/>
       <c r="F123" s="33"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="31" t="s">
         <v>153</v>
       </c>
@@ -18761,7 +18758,7 @@
       <c r="E124" s="33"/>
       <c r="F124" s="33"/>
     </row>
-    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A125" s="36" t="s">
         <v>154</v>
       </c>
@@ -18773,7 +18770,7 @@
       <c r="E125" s="38"/>
       <c r="F125" s="38"/>
     </row>
-    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A126" s="43" t="s">
         <v>161</v>
       </c>
@@ -18785,7 +18782,7 @@
       <c r="E126" s="38"/>
       <c r="F126" s="38"/>
     </row>
-    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A127" s="29" t="s">
         <v>242</v>
       </c>
@@ -18805,7 +18802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="39" t="s">
         <v>140</v>
       </c>
@@ -18819,7 +18816,7 @@
       <c r="E128" s="40"/>
       <c r="F128" s="40"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="41" t="s">
         <v>140</v>
       </c>
@@ -18833,7 +18830,7 @@
       <c r="E129" s="42"/>
       <c r="F129" s="42"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="41" t="s">
         <v>140</v>
       </c>
@@ -18847,7 +18844,7 @@
       <c r="E130" s="42"/>
       <c r="F130" s="42"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="41" t="s">
         <v>140</v>
       </c>
@@ -18861,7 +18858,7 @@
       <c r="E131" s="42"/>
       <c r="F131" s="42"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="41" t="s">
         <v>140</v>
       </c>
@@ -18875,7 +18872,7 @@
       <c r="E132" s="42"/>
       <c r="F132" s="42"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="41" t="s">
         <v>140</v>
       </c>
@@ -18889,7 +18886,7 @@
       <c r="E133" s="42"/>
       <c r="F133" s="42"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="41" t="s">
         <v>140</v>
       </c>
@@ -18903,7 +18900,7 @@
       <c r="E134" s="42"/>
       <c r="F134" s="42"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="41" t="s">
         <v>140</v>
       </c>
@@ -18917,7 +18914,7 @@
       <c r="E135" s="42"/>
       <c r="F135" s="42"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="41" t="s">
         <v>140</v>
       </c>
@@ -18931,7 +18928,7 @@
       <c r="E136" s="42"/>
       <c r="F136" s="42"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="41" t="s">
         <v>140</v>
       </c>
@@ -18945,7 +18942,7 @@
       <c r="E137" s="42"/>
       <c r="F137" s="42"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="41" t="s">
         <v>140</v>
       </c>
@@ -18959,7 +18956,7 @@
       <c r="E138" s="42"/>
       <c r="F138" s="42"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="31" t="s">
         <v>152</v>
       </c>
@@ -18971,7 +18968,7 @@
       <c r="E139" s="33"/>
       <c r="F139" s="33"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="31" t="s">
         <v>153</v>
       </c>
@@ -18983,7 +18980,7 @@
       <c r="E140" s="33"/>
       <c r="F140" s="33"/>
     </row>
-    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A141" s="31" t="s">
         <v>154</v>
       </c>
@@ -18995,7 +18992,7 @@
       <c r="E141" s="33"/>
       <c r="F141" s="33"/>
     </row>
-    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A142" s="43" t="s">
         <v>161</v>
       </c>
@@ -19007,7 +19004,7 @@
       <c r="E142" s="38"/>
       <c r="F142" s="38"/>
     </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A143" s="34" t="s">
         <v>526</v>
       </c>
@@ -19027,7 +19024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="39" t="s">
         <v>140</v>
       </c>
@@ -19041,7 +19038,7 @@
       <c r="E144" s="40"/>
       <c r="F144" s="40"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="39" t="s">
         <v>140</v>
       </c>
@@ -19055,7 +19052,7 @@
       <c r="E145" s="40"/>
       <c r="F145" s="40"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="39" t="s">
         <v>140</v>
       </c>
@@ -19069,7 +19066,7 @@
       <c r="E146" s="40"/>
       <c r="F146" s="40"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="39" t="s">
         <v>140</v>
       </c>
@@ -19083,7 +19080,7 @@
       <c r="E147" s="40"/>
       <c r="F147" s="40"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="41" t="s">
         <v>140</v>
       </c>
@@ -19097,7 +19094,7 @@
       <c r="E148" s="42"/>
       <c r="F148" s="42"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="41" t="s">
         <v>140</v>
       </c>
@@ -19111,7 +19108,7 @@
       <c r="E149" s="42"/>
       <c r="F149" s="42"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="41" t="s">
         <v>140</v>
       </c>
@@ -19125,7 +19122,7 @@
       <c r="E150" s="42"/>
       <c r="F150" s="42"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="41" t="s">
         <v>140</v>
       </c>
@@ -19139,7 +19136,7 @@
       <c r="E151" s="42"/>
       <c r="F151" s="42"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="41" t="s">
         <v>140</v>
       </c>
@@ -19153,7 +19150,7 @@
       <c r="E152" s="42"/>
       <c r="F152" s="42"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="41" t="s">
         <v>140</v>
       </c>
@@ -19167,7 +19164,7 @@
       <c r="E153" s="42"/>
       <c r="F153" s="42"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="41" t="s">
         <v>140</v>
       </c>
@@ -19181,7 +19178,7 @@
       <c r="E154" s="42"/>
       <c r="F154" s="42"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="31" t="s">
         <v>152</v>
       </c>
@@ -19193,7 +19190,7 @@
       <c r="E155" s="33"/>
       <c r="F155" s="33"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="31" t="s">
         <v>153</v>
       </c>
@@ -19205,7 +19202,7 @@
       <c r="E156" s="33"/>
       <c r="F156" s="33"/>
     </row>
-    <row r="157" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A157" s="36" t="s">
         <v>154</v>
       </c>
@@ -19217,7 +19214,7 @@
       <c r="E157" s="38"/>
       <c r="F157" s="38"/>
     </row>
-    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A158" s="43" t="s">
         <v>161</v>
       </c>
@@ -19229,7 +19226,7 @@
       <c r="E158" s="38"/>
       <c r="F158" s="38"/>
     </row>
-    <row r="159" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A159" s="34" t="s">
         <v>564</v>
       </c>
@@ -19249,7 +19246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="39" t="s">
         <v>140</v>
       </c>
@@ -19263,7 +19260,7 @@
       <c r="E160" s="40"/>
       <c r="F160" s="40"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="39" t="s">
         <v>140</v>
       </c>
@@ -19277,7 +19274,7 @@
       <c r="E161" s="40"/>
       <c r="F161" s="40"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="39" t="s">
         <v>140</v>
       </c>
@@ -19291,7 +19288,7 @@
       <c r="E162" s="40"/>
       <c r="F162" s="40"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="39" t="s">
         <v>140</v>
       </c>
@@ -19305,7 +19302,7 @@
       <c r="E163" s="40"/>
       <c r="F163" s="40"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="41" t="s">
         <v>140</v>
       </c>
@@ -19319,7 +19316,7 @@
       <c r="E164" s="42"/>
       <c r="F164" s="42"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="41" t="s">
         <v>140</v>
       </c>
@@ -19333,7 +19330,7 @@
       <c r="E165" s="42"/>
       <c r="F165" s="42"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="41" t="s">
         <v>140</v>
       </c>
@@ -19347,7 +19344,7 @@
       <c r="E166" s="42"/>
       <c r="F166" s="42"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="41" t="s">
         <v>140</v>
       </c>
@@ -19361,7 +19358,7 @@
       <c r="E167" s="42"/>
       <c r="F167" s="42"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="41" t="s">
         <v>140</v>
       </c>
@@ -19375,7 +19372,7 @@
       <c r="E168" s="42"/>
       <c r="F168" s="42"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="41" t="s">
         <v>140</v>
       </c>
@@ -19389,7 +19386,7 @@
       <c r="E169" s="42"/>
       <c r="F169" s="42"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="41" t="s">
         <v>140</v>
       </c>
@@ -19403,7 +19400,7 @@
       <c r="E170" s="42"/>
       <c r="F170" s="42"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="31" t="s">
         <v>152</v>
       </c>
@@ -19415,7 +19412,7 @@
       <c r="E171" s="33"/>
       <c r="F171" s="33"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="31" t="s">
         <v>153</v>
       </c>
@@ -19427,7 +19424,7 @@
       <c r="E172" s="33"/>
       <c r="F172" s="33"/>
     </row>
-    <row r="173" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A173" s="36" t="s">
         <v>154</v>
       </c>
@@ -19439,7 +19436,7 @@
       <c r="E173" s="38"/>
       <c r="F173" s="38"/>
     </row>
-    <row r="174" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A174" s="43" t="s">
         <v>161</v>
       </c>
@@ -19451,7 +19448,7 @@
       <c r="E174" s="38"/>
       <c r="F174" s="38"/>
     </row>
-    <row r="175" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A175" s="34" t="s">
         <v>566</v>
       </c>
@@ -19471,7 +19468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="39" t="s">
         <v>140</v>
       </c>
@@ -19485,7 +19482,7 @@
       <c r="E176" s="40"/>
       <c r="F176" s="40"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="39" t="s">
         <v>140</v>
       </c>
@@ -19499,7 +19496,7 @@
       <c r="E177" s="40"/>
       <c r="F177" s="40"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="39" t="s">
         <v>140</v>
       </c>
@@ -19513,7 +19510,7 @@
       <c r="E178" s="40"/>
       <c r="F178" s="40"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="39" t="s">
         <v>140</v>
       </c>
@@ -19527,7 +19524,7 @@
       <c r="E179" s="40"/>
       <c r="F179" s="40"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="41" t="s">
         <v>140</v>
       </c>
@@ -19541,7 +19538,7 @@
       <c r="E180" s="42"/>
       <c r="F180" s="42"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="41" t="s">
         <v>140</v>
       </c>
@@ -19555,7 +19552,7 @@
       <c r="E181" s="42"/>
       <c r="F181" s="42"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="41" t="s">
         <v>140</v>
       </c>
@@ -19569,7 +19566,7 @@
       <c r="E182" s="42"/>
       <c r="F182" s="42"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="41" t="s">
         <v>140</v>
       </c>
@@ -19583,7 +19580,7 @@
       <c r="E183" s="42"/>
       <c r="F183" s="42"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="41" t="s">
         <v>140</v>
       </c>
@@ -19597,7 +19594,7 @@
       <c r="E184" s="42"/>
       <c r="F184" s="42"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="41" t="s">
         <v>140</v>
       </c>
@@ -19611,7 +19608,7 @@
       <c r="E185" s="42"/>
       <c r="F185" s="42"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="41" t="s">
         <v>140</v>
       </c>
@@ -19625,7 +19622,7 @@
       <c r="E186" s="42"/>
       <c r="F186" s="42"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="31" t="s">
         <v>152</v>
       </c>
@@ -19637,7 +19634,7 @@
       <c r="E187" s="33"/>
       <c r="F187" s="33"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="31" t="s">
         <v>153</v>
       </c>
@@ -19649,7 +19646,7 @@
       <c r="E188" s="33"/>
       <c r="F188" s="33"/>
     </row>
-    <row r="189" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A189" s="36" t="s">
         <v>154</v>
       </c>
@@ -19661,7 +19658,7 @@
       <c r="E189" s="38"/>
       <c r="F189" s="38"/>
     </row>
-    <row r="190" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A190" s="43" t="s">
         <v>161</v>
       </c>
@@ -19673,7 +19670,7 @@
       <c r="E190" s="38"/>
       <c r="F190" s="38"/>
     </row>
-    <row r="191" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A191" s="29" t="s">
         <v>573</v>
       </c>
@@ -19693,7 +19690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="39" t="s">
         <v>140</v>
       </c>
@@ -19707,7 +19704,7 @@
       <c r="E192" s="40"/>
       <c r="F192" s="40"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="41" t="s">
         <v>140</v>
       </c>
@@ -19721,7 +19718,7 @@
       <c r="E193" s="42"/>
       <c r="F193" s="42"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="41" t="s">
         <v>140</v>
       </c>
@@ -19735,7 +19732,7 @@
       <c r="E194" s="42"/>
       <c r="F194" s="42"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="41" t="s">
         <v>140</v>
       </c>
@@ -19749,7 +19746,7 @@
       <c r="E195" s="42"/>
       <c r="F195" s="42"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="41" t="s">
         <v>140</v>
       </c>
@@ -19763,7 +19760,7 @@
       <c r="E196" s="42"/>
       <c r="F196" s="42"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="41" t="s">
         <v>140</v>
       </c>
@@ -19777,7 +19774,7 @@
       <c r="E197" s="42"/>
       <c r="F197" s="42"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="41" t="s">
         <v>140</v>
       </c>
@@ -19791,7 +19788,7 @@
       <c r="E198" s="42"/>
       <c r="F198" s="42"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="41" t="s">
         <v>140</v>
       </c>
@@ -19805,7 +19802,7 @@
       <c r="E199" s="42"/>
       <c r="F199" s="42"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="41" t="s">
         <v>140</v>
       </c>
@@ -19819,7 +19816,7 @@
       <c r="E200" s="42"/>
       <c r="F200" s="42"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="41" t="s">
         <v>140</v>
       </c>
@@ -19833,7 +19830,7 @@
       <c r="E201" s="42"/>
       <c r="F201" s="42"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="41" t="s">
         <v>140</v>
       </c>
@@ -19847,7 +19844,7 @@
       <c r="E202" s="42"/>
       <c r="F202" s="42"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="31" t="s">
         <v>152</v>
       </c>
@@ -19859,7 +19856,7 @@
       <c r="E203" s="33"/>
       <c r="F203" s="33"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="31" t="s">
         <v>153</v>
       </c>
@@ -19871,7 +19868,7 @@
       <c r="E204" s="33"/>
       <c r="F204" s="33"/>
     </row>
-    <row r="205" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A205" s="31" t="s">
         <v>154</v>
       </c>
@@ -19883,7 +19880,7 @@
       <c r="E205" s="33"/>
       <c r="F205" s="33"/>
     </row>
-    <row r="206" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A206" s="43" t="s">
         <v>161</v>
       </c>
@@ -19895,7 +19892,7 @@
       <c r="E206" s="38"/>
       <c r="F206" s="38"/>
     </row>
-    <row r="207" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A207" s="29" t="s">
         <v>574</v>
       </c>
@@ -19915,7 +19912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="39" t="s">
         <v>140</v>
       </c>
@@ -19929,7 +19926,7 @@
       <c r="E208" s="40"/>
       <c r="F208" s="40"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="41" t="s">
         <v>140</v>
       </c>
@@ -19943,7 +19940,7 @@
       <c r="E209" s="42"/>
       <c r="F209" s="42"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="41" t="s">
         <v>140</v>
       </c>
@@ -19957,7 +19954,7 @@
       <c r="E210" s="42"/>
       <c r="F210" s="42"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="41" t="s">
         <v>140</v>
       </c>
@@ -19971,7 +19968,7 @@
       <c r="E211" s="42"/>
       <c r="F211" s="42"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="41" t="s">
         <v>140</v>
       </c>
@@ -19985,7 +19982,7 @@
       <c r="E212" s="42"/>
       <c r="F212" s="42"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="41" t="s">
         <v>140</v>
       </c>
@@ -19999,7 +19996,7 @@
       <c r="E213" s="42"/>
       <c r="F213" s="42"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="41" t="s">
         <v>140</v>
       </c>
@@ -20013,7 +20010,7 @@
       <c r="E214" s="42"/>
       <c r="F214" s="42"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="41" t="s">
         <v>140</v>
       </c>
@@ -20027,7 +20024,7 @@
       <c r="E215" s="42"/>
       <c r="F215" s="42"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="41" t="s">
         <v>140</v>
       </c>
@@ -20041,7 +20038,7 @@
       <c r="E216" s="42"/>
       <c r="F216" s="42"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="41" t="s">
         <v>140</v>
       </c>
@@ -20055,7 +20052,7 @@
       <c r="E217" s="42"/>
       <c r="F217" s="42"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="41" t="s">
         <v>140</v>
       </c>
@@ -20069,7 +20066,7 @@
       <c r="E218" s="42"/>
       <c r="F218" s="42"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="31" t="s">
         <v>152</v>
       </c>
@@ -20081,7 +20078,7 @@
       <c r="E219" s="33"/>
       <c r="F219" s="33"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="31" t="s">
         <v>153</v>
       </c>
@@ -20093,7 +20090,7 @@
       <c r="E220" s="33"/>
       <c r="F220" s="33"/>
     </row>
-    <row r="221" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A221" s="31" t="s">
         <v>154</v>
       </c>
@@ -20105,7 +20102,7 @@
       <c r="E221" s="33"/>
       <c r="F221" s="33"/>
     </row>
-    <row r="222" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A222" s="43" t="s">
         <v>161</v>
       </c>
@@ -20131,24 +20128,24 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="60"/>
-    <col min="3" max="3" width="19.5703125" style="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.5703125" style="75" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="73.5703125" style="60" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="60"/>
+    <col min="1" max="2" width="9.15625" style="60"/>
+    <col min="3" max="3" width="19.578125" style="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.578125" style="75" customWidth="1"/>
+    <col min="6" max="6" width="22.83984375" style="75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26171875" style="75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.578125" style="75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.41796875" style="75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26171875" style="75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83984375" style="75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83984375" style="75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.578125" style="75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="73.578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.15625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="56" t="s">
         <v>295</v>
       </c>
@@ -20192,7 +20189,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="61" t="s">
         <v>307</v>
       </c>
@@ -20236,7 +20233,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="61" t="s">
         <v>307</v>
       </c>
@@ -20280,7 +20277,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="61" t="s">
         <v>307</v>
       </c>
@@ -20322,7 +20319,7 @@
       </c>
       <c r="N4" s="61"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="61" t="s">
         <v>307</v>
       </c>
@@ -20366,7 +20363,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="61" t="s">
         <v>307</v>
       </c>
@@ -20410,7 +20407,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="61" t="s">
         <v>307</v>
       </c>
@@ -20454,7 +20451,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="61" t="s">
         <v>307</v>
       </c>
@@ -20496,7 +20493,7 @@
       </c>
       <c r="N8" s="61"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="61" t="s">
         <v>307</v>
       </c>
@@ -20540,7 +20537,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="61" t="s">
         <v>307</v>
       </c>
@@ -20584,7 +20581,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="61" t="s">
         <v>307</v>
       </c>
@@ -20626,7 +20623,7 @@
       </c>
       <c r="N11" s="61"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="61" t="s">
         <v>307</v>
       </c>
@@ -20668,7 +20665,7 @@
       </c>
       <c r="N12" s="61"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="61" t="s">
         <v>307</v>
       </c>
@@ -20710,7 +20707,7 @@
       </c>
       <c r="N13" s="61"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="61" t="s">
         <v>307</v>
       </c>
@@ -20752,7 +20749,7 @@
       </c>
       <c r="N14" s="61"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="66" t="s">
         <v>413</v>
       </c>
@@ -20796,7 +20793,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="66" t="s">
         <v>413</v>
       </c>
@@ -20838,7 +20835,7 @@
       </c>
       <c r="N16" s="66"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="66" t="s">
         <v>413</v>
       </c>
@@ -20880,7 +20877,7 @@
       </c>
       <c r="N17" s="66"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="66" t="s">
         <v>413</v>
       </c>
@@ -20922,7 +20919,7 @@
       </c>
       <c r="N18" s="66"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="66" t="s">
         <v>413</v>
       </c>
@@ -20964,7 +20961,7 @@
       </c>
       <c r="N19" s="66"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="66" t="s">
         <v>413</v>
       </c>
@@ -21006,7 +21003,7 @@
       </c>
       <c r="N20" s="66"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="66" t="s">
         <v>413</v>
       </c>
@@ -21048,7 +21045,7 @@
       </c>
       <c r="N21" s="66"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="66" t="s">
         <v>413</v>
       </c>
@@ -21090,7 +21087,7 @@
       </c>
       <c r="N22" s="66"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="66" t="s">
         <v>413</v>
       </c>
@@ -21132,7 +21129,7 @@
       </c>
       <c r="N23" s="66"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="66" t="s">
         <v>413</v>
       </c>
@@ -21174,7 +21171,7 @@
       </c>
       <c r="N24" s="66"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="66" t="s">
         <v>413</v>
       </c>
@@ -21216,7 +21213,7 @@
       </c>
       <c r="N25" s="66"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="66" t="s">
         <v>413</v>
       </c>
@@ -21258,7 +21255,7 @@
       </c>
       <c r="N26" s="66"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="66" t="s">
         <v>413</v>
       </c>
@@ -21300,7 +21297,7 @@
       </c>
       <c r="N27" s="66"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="61" t="s">
         <v>307</v>
       </c>
@@ -21324,7 +21321,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="61" t="s">
         <v>307</v>
       </c>
@@ -21346,7 +21343,7 @@
       <c r="M29" s="64"/>
       <c r="N29" s="61"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="61" t="s">
         <v>307</v>
       </c>
@@ -21368,7 +21365,7 @@
       <c r="M30" s="64"/>
       <c r="N30" s="61"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="61" t="s">
         <v>307</v>
       </c>
@@ -21390,7 +21387,7 @@
       <c r="M31" s="64"/>
       <c r="N31" s="61"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="61" t="s">
         <v>307</v>
       </c>
@@ -21412,7 +21409,7 @@
       <c r="M32" s="64"/>
       <c r="N32" s="61"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="61" t="s">
         <v>307</v>
       </c>
@@ -21434,7 +21431,7 @@
       <c r="M33" s="64"/>
       <c r="N33" s="61"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="61" t="s">
         <v>307</v>
       </c>
@@ -21456,7 +21453,7 @@
       <c r="M34" s="64"/>
       <c r="N34" s="61"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="61" t="s">
         <v>307</v>
       </c>
@@ -21478,7 +21475,7 @@
       <c r="M35" s="64"/>
       <c r="N35" s="61"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="61" t="s">
         <v>307</v>
       </c>
@@ -21500,7 +21497,7 @@
       <c r="M36" s="64"/>
       <c r="N36" s="61"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="61" t="s">
         <v>307</v>
       </c>
@@ -21522,7 +21519,7 @@
       <c r="M37" s="64"/>
       <c r="N37" s="61"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="61" t="s">
         <v>307</v>
       </c>
@@ -21544,7 +21541,7 @@
       <c r="M38" s="64"/>
       <c r="N38" s="61"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="61" t="s">
         <v>307</v>
       </c>
@@ -21566,7 +21563,7 @@
       <c r="M39" s="64"/>
       <c r="N39" s="61"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="61" t="s">
         <v>307</v>
       </c>
@@ -21588,7 +21585,7 @@
       <c r="M40" s="64"/>
       <c r="N40" s="61"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="66" t="s">
         <v>413</v>
       </c>
@@ -21610,7 +21607,7 @@
       <c r="M41" s="68"/>
       <c r="N41" s="66"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="66" t="s">
         <v>413</v>
       </c>
@@ -21632,7 +21629,7 @@
       <c r="M42" s="68"/>
       <c r="N42" s="66"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="66" t="s">
         <v>413</v>
       </c>
@@ -21654,7 +21651,7 @@
       <c r="M43" s="68"/>
       <c r="N43" s="66"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="66" t="s">
         <v>413</v>
       </c>
@@ -21676,7 +21673,7 @@
       <c r="M44" s="68"/>
       <c r="N44" s="66"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="66" t="s">
         <v>413</v>
       </c>
@@ -21698,7 +21695,7 @@
       <c r="M45" s="68"/>
       <c r="N45" s="66"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="66" t="s">
         <v>413</v>
       </c>
@@ -21720,7 +21717,7 @@
       <c r="M46" s="68"/>
       <c r="N46" s="66"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="66" t="s">
         <v>413</v>
       </c>
@@ -21742,7 +21739,7 @@
       <c r="M47" s="68"/>
       <c r="N47" s="66"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="66" t="s">
         <v>413</v>
       </c>
@@ -21764,7 +21761,7 @@
       <c r="M48" s="68"/>
       <c r="N48" s="66"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="66" t="s">
         <v>413</v>
       </c>
@@ -21786,7 +21783,7 @@
       <c r="M49" s="68"/>
       <c r="N49" s="66"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="66" t="s">
         <v>413</v>
       </c>
@@ -21808,7 +21805,7 @@
       <c r="M50" s="68"/>
       <c r="N50" s="66"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="66" t="s">
         <v>413</v>
       </c>
@@ -21830,7 +21827,7 @@
       <c r="M51" s="68"/>
       <c r="N51" s="66"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="66" t="s">
         <v>413</v>
       </c>
@@ -21852,7 +21849,7 @@
       <c r="M52" s="68"/>
       <c r="N52" s="66"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="66" t="s">
         <v>413</v>
       </c>
@@ -21874,7 +21871,7 @@
       <c r="M53" s="68"/>
       <c r="N53" s="66"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="61" t="s">
         <v>307</v>
       </c>
@@ -21898,7 +21895,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="61" t="s">
         <v>307</v>
       </c>
@@ -21920,7 +21917,7 @@
       <c r="M55" s="64"/>
       <c r="N55" s="61"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="61" t="s">
         <v>307</v>
       </c>
@@ -21942,7 +21939,7 @@
       <c r="M56" s="64"/>
       <c r="N56" s="61"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="61" t="s">
         <v>307</v>
       </c>
@@ -21964,7 +21961,7 @@
       <c r="M57" s="64"/>
       <c r="N57" s="61"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="61" t="s">
         <v>307</v>
       </c>
@@ -21986,7 +21983,7 @@
       <c r="M58" s="64"/>
       <c r="N58" s="61"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="61" t="s">
         <v>307</v>
       </c>
@@ -22008,7 +22005,7 @@
       <c r="M59" s="64"/>
       <c r="N59" s="61"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="61" t="s">
         <v>307</v>
       </c>
@@ -22030,7 +22027,7 @@
       <c r="M60" s="64"/>
       <c r="N60" s="61"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="61" t="s">
         <v>307</v>
       </c>
@@ -22052,7 +22049,7 @@
       <c r="M61" s="64"/>
       <c r="N61" s="61"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="61" t="s">
         <v>307</v>
       </c>
@@ -22074,7 +22071,7 @@
       <c r="M62" s="64"/>
       <c r="N62" s="61"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="61" t="s">
         <v>307</v>
       </c>
@@ -22096,7 +22093,7 @@
       <c r="M63" s="64"/>
       <c r="N63" s="61"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="61" t="s">
         <v>307</v>
       </c>
@@ -22118,7 +22115,7 @@
       <c r="M64" s="64"/>
       <c r="N64" s="61"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="61" t="s">
         <v>307</v>
       </c>
@@ -22140,7 +22137,7 @@
       <c r="M65" s="64"/>
       <c r="N65" s="61"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="61" t="s">
         <v>307</v>
       </c>
@@ -22162,7 +22159,7 @@
       <c r="M66" s="64"/>
       <c r="N66" s="61"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="66" t="s">
         <v>413</v>
       </c>
@@ -22184,7 +22181,7 @@
       <c r="M67" s="68"/>
       <c r="N67" s="66"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="66" t="s">
         <v>413</v>
       </c>
@@ -22206,7 +22203,7 @@
       <c r="M68" s="68"/>
       <c r="N68" s="66"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="66" t="s">
         <v>413</v>
       </c>
@@ -22228,7 +22225,7 @@
       <c r="M69" s="68"/>
       <c r="N69" s="66"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="66" t="s">
         <v>413</v>
       </c>
@@ -22250,7 +22247,7 @@
       <c r="M70" s="68"/>
       <c r="N70" s="66"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="66" t="s">
         <v>413</v>
       </c>
@@ -22272,7 +22269,7 @@
       <c r="M71" s="68"/>
       <c r="N71" s="66"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="66" t="s">
         <v>413</v>
       </c>
@@ -22294,7 +22291,7 @@
       <c r="M72" s="68"/>
       <c r="N72" s="66"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="66" t="s">
         <v>413</v>
       </c>
@@ -22316,7 +22313,7 @@
       <c r="M73" s="68"/>
       <c r="N73" s="66"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="66" t="s">
         <v>413</v>
       </c>
@@ -22338,7 +22335,7 @@
       <c r="M74" s="68"/>
       <c r="N74" s="66"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="66" t="s">
         <v>413</v>
       </c>
@@ -22360,7 +22357,7 @@
       <c r="M75" s="68"/>
       <c r="N75" s="66"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="66" t="s">
         <v>413</v>
       </c>
@@ -22382,7 +22379,7 @@
       <c r="M76" s="68"/>
       <c r="N76" s="66"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="66" t="s">
         <v>413</v>
       </c>
@@ -22404,7 +22401,7 @@
       <c r="M77" s="68"/>
       <c r="N77" s="66"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="66" t="s">
         <v>413</v>
       </c>
@@ -22426,7 +22423,7 @@
       <c r="M78" s="68"/>
       <c r="N78" s="66"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="66" t="s">
         <v>413</v>
       </c>
@@ -22448,7 +22445,7 @@
       <c r="M79" s="68"/>
       <c r="N79" s="66"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="61" t="s">
         <v>307</v>
       </c>
@@ -22472,7 +22469,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="61" t="s">
         <v>307</v>
       </c>
@@ -22494,7 +22491,7 @@
       <c r="M81" s="64"/>
       <c r="N81" s="61"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="61" t="s">
         <v>307</v>
       </c>
@@ -22516,7 +22513,7 @@
       <c r="M82" s="64"/>
       <c r="N82" s="61"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="61" t="s">
         <v>307</v>
       </c>
@@ -22538,7 +22535,7 @@
       <c r="M83" s="64"/>
       <c r="N83" s="61"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="61" t="s">
         <v>307</v>
       </c>
@@ -22560,7 +22557,7 @@
       <c r="M84" s="64"/>
       <c r="N84" s="61"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="61" t="s">
         <v>307</v>
       </c>
@@ -22582,7 +22579,7 @@
       <c r="M85" s="64"/>
       <c r="N85" s="61"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="61" t="s">
         <v>307</v>
       </c>
@@ -22604,7 +22601,7 @@
       <c r="M86" s="64"/>
       <c r="N86" s="61"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="61" t="s">
         <v>307</v>
       </c>
@@ -22626,7 +22623,7 @@
       <c r="M87" s="64"/>
       <c r="N87" s="61"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="61" t="s">
         <v>307</v>
       </c>
@@ -22648,7 +22645,7 @@
       <c r="M88" s="64"/>
       <c r="N88" s="61"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="61" t="s">
         <v>307</v>
       </c>
@@ -22670,7 +22667,7 @@
       <c r="M89" s="64"/>
       <c r="N89" s="61"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="61" t="s">
         <v>307</v>
       </c>
@@ -22692,7 +22689,7 @@
       <c r="M90" s="64"/>
       <c r="N90" s="61"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="61" t="s">
         <v>307</v>
       </c>
@@ -22714,7 +22711,7 @@
       <c r="M91" s="64"/>
       <c r="N91" s="61"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="61" t="s">
         <v>307</v>
       </c>
@@ -22736,7 +22733,7 @@
       <c r="M92" s="64"/>
       <c r="N92" s="61"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="66" t="s">
         <v>413</v>
       </c>
@@ -22758,7 +22755,7 @@
       <c r="M93" s="68"/>
       <c r="N93" s="66"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="66" t="s">
         <v>413</v>
       </c>
@@ -22780,7 +22777,7 @@
       <c r="M94" s="68"/>
       <c r="N94" s="66"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="66" t="s">
         <v>413</v>
       </c>
@@ -22802,7 +22799,7 @@
       <c r="M95" s="68"/>
       <c r="N95" s="66"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="66" t="s">
         <v>413</v>
       </c>
@@ -22824,7 +22821,7 @@
       <c r="M96" s="68"/>
       <c r="N96" s="66"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="66" t="s">
         <v>413</v>
       </c>
@@ -22846,7 +22843,7 @@
       <c r="M97" s="68"/>
       <c r="N97" s="66"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="66" t="s">
         <v>413</v>
       </c>
@@ -22868,7 +22865,7 @@
       <c r="M98" s="68"/>
       <c r="N98" s="66"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="66" t="s">
         <v>413</v>
       </c>
@@ -22890,7 +22887,7 @@
       <c r="M99" s="68"/>
       <c r="N99" s="66"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="66" t="s">
         <v>413</v>
       </c>
@@ -22912,7 +22909,7 @@
       <c r="M100" s="68"/>
       <c r="N100" s="66"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="66" t="s">
         <v>413</v>
       </c>
@@ -22934,7 +22931,7 @@
       <c r="M101" s="68"/>
       <c r="N101" s="66"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="66" t="s">
         <v>413</v>
       </c>
@@ -22956,7 +22953,7 @@
       <c r="M102" s="68"/>
       <c r="N102" s="66"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="66" t="s">
         <v>413</v>
       </c>
@@ -22978,7 +22975,7 @@
       <c r="M103" s="68"/>
       <c r="N103" s="66"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="66" t="s">
         <v>413</v>
       </c>
@@ -23000,7 +22997,7 @@
       <c r="M104" s="68"/>
       <c r="N104" s="66"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="66" t="s">
         <v>413</v>
       </c>
